--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -589,8 +589,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1109,9 +1109,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1307,7 +1307,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1384,7 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1396,7 +1396,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1482,6 +1482,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -1498,43 +1533,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1543,10 +1547,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1860,11 +1860,11 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:M3"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3024,11 +3024,11 @@
         <v>10</v>
       </c>
       <c r="B48" s="28">
-        <f t="shared" ref="B48:M48" si="9">(ROUND(B40+B44+B46-B42,2))</f>
+        <f>(ROUND(B44+B46,2))</f>
         <v>0</v>
       </c>
       <c r="C48" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C48:M48" si="9">(ROUND(C44+C46,2))</f>
         <v>0</v>
       </c>
       <c r="D48" s="28">
@@ -3067,7 +3067,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M48" s="29">
+      <c r="M48" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4125,7 +4125,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i7bRWGa+rRvmEZHLTH7dSqE7uEXTSX6elu5SrIJSRqKpbm0MmN+f3mGHKYsFuFm4nig26SI4WHY/wtZY4M8CKA==" saltValue="jzkUdNftsDFr4t5c+u4J7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A1:M1"/>
@@ -4170,70 +4169,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="1" t="str">
         <f>'Operating Stmt.'!L4</f>
         <v>Rupees</v>
@@ -4244,7 +4243,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="126" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="63">
@@ -4297,70 +4296,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="119" t="str">
+      <c r="A6" s="127"/>
+      <c r="B6" s="118" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="119" t="str">
+      <c r="C6" s="118" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="118" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="119" t="str">
+      <c r="E6" s="118" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="119" t="str">
+      <c r="F6" s="118" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="119" t="str">
+      <c r="G6" s="118" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="119" t="str">
+      <c r="H6" s="118" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="119" t="str">
+      <c r="I6" s="118" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="119" t="str">
+      <c r="J6" s="118" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="119" t="str">
+      <c r="K6" s="118" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="119" t="str">
+      <c r="L6" s="118" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="126" t="str">
+      <c r="M6" s="122" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="127"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="123"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
@@ -4806,7 +4805,7 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -4821,7 +4820,7 @@
       <c r="M33" s="59"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5983,8 +5982,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7W+SJ6wMc/O96WhI3y/t2RXMCnY9zOonXIj9VS9vJ2spn71uHgApmPZWW0rChKt8Wa2k03OV1LgCgF222glkaA==" saltValue="OVxbTUYFsa7vvLq/X0zo8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="L6:L7"/>
@@ -6001,6 +5998,8 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
@@ -6035,70 +6034,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="1" t="str">
         <f>'Operating Stmt.'!L4</f>
         <v>Rupees</v>
@@ -6109,7 +6108,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="130" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="96">
@@ -6162,70 +6161,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="119" t="str">
+      <c r="A6" s="131"/>
+      <c r="B6" s="118" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="119" t="str">
+      <c r="C6" s="118" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="118" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="119" t="str">
+      <c r="E6" s="118" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="119" t="str">
+      <c r="F6" s="118" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="119" t="str">
+      <c r="G6" s="118" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="119" t="str">
+      <c r="H6" s="118" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="119" t="str">
+      <c r="I6" s="118" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="119" t="str">
+      <c r="J6" s="118" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="119" t="str">
+      <c r="K6" s="118" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="119" t="str">
+      <c r="L6" s="118" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="126" t="str">
+      <c r="M6" s="122" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="131"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
@@ -8422,6 +8421,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="gCAJhDjH91pGkDLgQzOyLcFfRSAHratKW2iXt0Hxaq6M33QoW20Nxys2xqN7voXArV6XgVCTL9MwusoeDnmfDQ==" saltValue="6OueseyPnOxBOBmcQuv/tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -8437,8 +8438,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
@@ -1482,6 +1482,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1493,10 +1517,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1505,32 +1525,12 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1859,12 +1859,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4169,70 +4169,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
       <c r="L4" s="1" t="str">
         <f>'Operating Stmt.'!L4</f>
         <v>Rupees</v>
@@ -4243,7 +4243,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="117" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="63">
@@ -4296,70 +4296,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="118" t="str">
+      <c r="A6" s="118"/>
+      <c r="B6" s="119" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="118" t="str">
+      <c r="C6" s="119" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="118" t="str">
+      <c r="D6" s="119" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="118" t="str">
+      <c r="E6" s="119" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="118" t="str">
+      <c r="F6" s="119" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="118" t="str">
+      <c r="G6" s="119" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="118" t="str">
+      <c r="H6" s="119" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="118" t="str">
+      <c r="I6" s="119" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="118" t="str">
+      <c r="J6" s="119" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="118" t="str">
+      <c r="K6" s="119" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="118" t="str">
+      <c r="L6" s="119" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="122" t="str">
+      <c r="M6" s="126" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="123"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="127"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
@@ -4805,7 +4805,7 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -4820,7 +4820,7 @@
       <c r="M33" s="59"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5982,6 +5982,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7W+SJ6wMc/O96WhI3y/t2RXMCnY9zOonXIj9VS9vJ2spn71uHgApmPZWW0rChKt8Wa2k03OV1LgCgF222glkaA==" saltValue="OVxbTUYFsa7vvLq/X0zo8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="L6:L7"/>
@@ -5998,8 +6000,6 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
@@ -6018,12 +6018,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6034,38 +6034,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -6085,19 +6085,19 @@
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
       <c r="L4" s="1" t="str">
         <f>'Operating Stmt.'!L4</f>
         <v>Rupees</v>
@@ -6162,68 +6162,68 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="131"/>
-      <c r="B6" s="118" t="str">
+      <c r="B6" s="119" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="118" t="str">
+      <c r="C6" s="119" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="118" t="str">
+      <c r="D6" s="119" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="118" t="str">
+      <c r="E6" s="119" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="118" t="str">
+      <c r="F6" s="119" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="118" t="str">
+      <c r="G6" s="119" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="118" t="str">
+      <c r="H6" s="119" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="118" t="str">
+      <c r="I6" s="119" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="118" t="str">
+      <c r="J6" s="119" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="118" t="str">
+      <c r="K6" s="119" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="118" t="str">
+      <c r="L6" s="119" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="122" t="str">
+      <c r="M6" s="126" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="131"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6687,54 +6687,18 @@
       <c r="A29" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="89">
-        <f>'Operating Stmt.'!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="89">
-        <f>'Operating Stmt.'!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="89">
-        <f>'Operating Stmt.'!D42</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="89">
-        <f>'Operating Stmt.'!E42</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="89">
-        <f>'Operating Stmt.'!F42</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="89">
-        <f>'Operating Stmt.'!G42</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="89">
-        <f>'Operating Stmt.'!H42</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="89">
-        <f>'Operating Stmt.'!I42</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="89">
-        <f>'Operating Stmt.'!J42</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="89">
-        <f>'Operating Stmt.'!K42</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="89">
-        <f>'Operating Stmt.'!L42</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="90">
-        <f>'Operating Stmt.'!M42</f>
-        <v>0</v>
-      </c>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="90"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="102"/>
@@ -6755,54 +6719,18 @@
       <c r="A31" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="89">
-        <f>'Operating Stmt.'!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="89">
-        <f>'Operating Stmt.'!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="89">
-        <f>'Operating Stmt.'!D50</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="89">
-        <f>'Operating Stmt.'!E50</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="89">
-        <f>'Operating Stmt.'!F50</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="89">
-        <f>'Operating Stmt.'!G50</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="89">
-        <f>'Operating Stmt.'!H50</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="89">
-        <f>'Operating Stmt.'!I50</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="89">
-        <f>'Operating Stmt.'!J50</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="89">
-        <f>'Operating Stmt.'!K50</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="89">
-        <f>'Operating Stmt.'!L50</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="90">
-        <f>'Operating Stmt.'!M50</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="102"/>
@@ -8419,8 +8347,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gCAJhDjH91pGkDLgQzOyLcFfRSAHratKW2iXt0Hxaq6M33QoW20Nxys2xqN7voXArV6XgVCTL9MwusoeDnmfDQ==" saltValue="6OueseyPnOxBOBmcQuv/tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
@@ -8437,7 +8365,6 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -1551,17 +1551,17 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1884,11 +1884,11 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3047,51 +3047,51 @@
         <v>10</v>
       </c>
       <c r="B48" s="49">
-        <f t="shared" ref="B48:M48" si="9">(ROUND(B40+B44+B46,2))</f>
+        <f>(ROUND(B44+B46,2))</f>
         <v>0</v>
       </c>
       <c r="C48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(C44+C46,2))</f>
         <v>0</v>
       </c>
       <c r="D48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(D44+D46,2))</f>
         <v>0</v>
       </c>
       <c r="E48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(E44+E46,2))</f>
         <v>0</v>
       </c>
       <c r="F48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(F44+F46,2))</f>
         <v>0</v>
       </c>
       <c r="G48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(G44+G46,2))</f>
         <v>0</v>
       </c>
       <c r="H48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(H44+H46,2))</f>
         <v>0</v>
       </c>
       <c r="I48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(I44+I46,2))</f>
         <v>0</v>
       </c>
       <c r="J48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(J44+J46,2))</f>
         <v>0</v>
       </c>
       <c r="K48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(K44+K46,2))</f>
         <v>0</v>
       </c>
       <c r="L48" s="49">
-        <f t="shared" si="9"/>
+        <f>(ROUND(L44+L46,2))</f>
         <v>0</v>
       </c>
       <c r="M48" s="104">
-        <f t="shared" si="9"/>
+        <f>(ROUND(M44+M46,2))</f>
         <v>0</v>
       </c>
     </row>
@@ -3147,51 +3147,51 @@
         <v>8</v>
       </c>
       <c r="B52" s="49">
-        <f t="shared" ref="B52:M52" si="10">(ROUND(B48-B50,2))</f>
+        <f t="shared" ref="B52:M52" si="9">(ROUND(B48-B50,2))</f>
         <v>0</v>
       </c>
       <c r="C52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L52" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M52" s="104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3283,47 +3283,47 @@
         <v>0</v>
       </c>
       <c r="C58" s="49">
-        <f t="shared" ref="C58:M58" si="11">(ROUND(C52+C56+C54,2))</f>
+        <f t="shared" ref="C58:M58" si="10">(ROUND(C52+C56+C54,2))</f>
         <v>0</v>
       </c>
       <c r="D58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L58" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M58" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3347,51 +3347,51 @@
         <v>102</v>
       </c>
       <c r="B60" s="49">
-        <f t="shared" ref="B60:M60" si="12">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
+        <f t="shared" ref="B60:M60" si="11">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
         <v>0</v>
       </c>
       <c r="C60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L60" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M60" s="104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3447,51 +3447,51 @@
         <v>104</v>
       </c>
       <c r="B64" s="49">
-        <f t="shared" ref="B64:M64" si="13">(ROUND(B60-B62,2))</f>
+        <f t="shared" ref="B64:M64" si="12">(ROUND(B60-B62,2))</f>
         <v>0</v>
       </c>
       <c r="C64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L64" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M64" s="104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3532,51 +3532,51 @@
         <v>7</v>
       </c>
       <c r="B67" s="49">
-        <f t="shared" ref="B67:M67" si="14">B66</f>
+        <f t="shared" ref="B67:M67" si="13">B66</f>
         <v>0</v>
       </c>
       <c r="C67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L67" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M67" s="104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3602,51 +3602,51 @@
         <v>5</v>
       </c>
       <c r="B69" s="49">
-        <f t="shared" ref="B69:M69" si="15">B68</f>
+        <f t="shared" ref="B69:M69" si="14">B68</f>
         <v>0</v>
       </c>
       <c r="C69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L69" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M69" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3655,51 +3655,51 @@
         <v>4</v>
       </c>
       <c r="B70" s="49">
-        <f t="shared" ref="B70:M70" si="16">SUM(ROUND(B67-B69,2))</f>
+        <f t="shared" ref="B70:M70" si="15">SUM(ROUND(B67-B69,2))</f>
         <v>0</v>
       </c>
       <c r="C70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L70" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M70" s="104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3740,51 +3740,51 @@
         <v>106</v>
       </c>
       <c r="B73" s="49">
-        <f t="shared" ref="B73:M73" si="17">SUM(ROUND(B64+B70-B71,2))</f>
+        <f t="shared" ref="B73:M73" si="16">SUM(ROUND(B64+B70-B71,2))</f>
         <v>0</v>
       </c>
       <c r="C73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L73" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M73" s="104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4031,51 +4031,51 @@
         <v>109</v>
       </c>
       <c r="B84" s="49">
-        <f t="shared" ref="B84:M84" si="18">B78-B80</f>
+        <f t="shared" ref="B84:M84" si="17">B78-B80</f>
         <v>0</v>
       </c>
       <c r="C84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L84" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M84" s="104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4099,56 +4099,56 @@
         <v>110</v>
       </c>
       <c r="B86" s="50">
-        <f t="shared" ref="B86:M86" si="19">IFERROR((B84/B78),0)</f>
+        <f t="shared" ref="B86:M86" si="18">IFERROR((B84/B78),0)</f>
         <v>0</v>
       </c>
       <c r="C86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L86" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M86" s="106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ruc88LWM6cER4ni9pVxsj4UbvozoxKddwgD0uTSFpV3YF2kbyx3Jz2QA+M2X/j0ds3hKiCglQ/Hn3zQSeembxA==" saltValue="tygsqoCz3+yYXL3LoWA2dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BsmTXYPCDduW8uo+x4Wjiog5Usd5Fw35BXK06T+zGQrqfu6Dhv9QF/ynhE3czc3GijSPXYvHmCd+tMN6i2QgIw==" saltValue="efcxZt1rYQuwhgUOcDHT5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -4178,11 +4178,11 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4237,13 +4237,13 @@
       <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
@@ -4379,17 +4379,17 @@
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="127" t="str">
+      <c r="M6" s="129" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="121"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="123"/>
       <c r="G7" s="123"/>
       <c r="H7" s="123"/>
@@ -4397,7 +4397,7 @@
       <c r="J7" s="123"/>
       <c r="K7" s="123"/>
       <c r="L7" s="123"/>
-      <c r="M7" s="128"/>
+      <c r="M7" s="130"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
@@ -4523,15 +4523,15 @@
         <v>66</v>
       </c>
       <c r="B15" s="68">
-        <f t="shared" ref="B15:M15" si="0">SUM(ROUND(B11+B12,2))</f>
+        <f>SUM(ROUND(B11+B12,2))</f>
         <v>0</v>
       </c>
       <c r="C15" s="68">
-        <f t="shared" si="0"/>
+        <f>SUM(ROUND(C11+C12,2))</f>
         <v>0</v>
       </c>
       <c r="D15" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B15:M15" si="0">SUM(ROUND(D11+D12,2))</f>
         <v>0</v>
       </c>
       <c r="E15" s="68">
@@ -5969,11 +5969,11 @@
         <v>125</v>
       </c>
       <c r="B87" s="82">
-        <f t="shared" ref="B87:M87" si="8">SUM(ROUND(B63+B85,2))</f>
+        <f>SUM(ROUND(B63+B85,2))</f>
         <v>0</v>
       </c>
       <c r="C87" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B87:M87" si="8">SUM(ROUND(C63+C85,2))</f>
         <v>0</v>
       </c>
       <c r="D87" s="82">
@@ -6018,7 +6018,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="su+1KEb5AXfIECIVzOpPiutOuFRHIyNTvHyW/wDX1mfT2XFhHgfvmRelYrl5DWJ9HLRVhedCmgmoDxYRqWSbeg==" saltValue="qrXx3jyIE4eY0NF/CGVMqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vh3co2K3auc2SO4KXVDI6k1EQx3Ckj3sn5ZcWM7CP3FwOAt2NiBqyHr5mfTr2P1iBb1SFynUH0U95Saz66ioXQ==" saltValue="Hcog5vwf8WANu53WAA84Zg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="F6:F7"/>
@@ -6068,7 +6068,7 @@
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6123,13 +6123,13 @@
       <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
@@ -6265,24 +6265,24 @@
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="127" t="str">
+      <c r="M6" s="129" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="131"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -8478,12 +8478,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8/JreBCuvHVVvQwIx7bQmCmjhuRvYm9+BN6btFcTR6Vqu0ieM2bpSRlLgKJ2kRt1g5KPOBI55t11ppBiBv0L/A==" saltValue="32zoxFpnnWe0anY93dg+XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AjL5mar7wgLPvac6BlJB0XUYC6V5Eqnr3Hb6j84Cb16ksyH4cZ7g1s3iYJ6TJbhMjjIE/eWDZ+odLkYp05QBhg==" saltValue="p3uk3iD0ptTlDDUKr/O9yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -8497,6 +8493,10 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -1884,11 +1884,11 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3047,51 +3047,51 @@
         <v>10</v>
       </c>
       <c r="B48" s="49">
-        <f>(ROUND(B44+B46,2))</f>
+        <f t="shared" ref="B48:M48" si="9">(ROUND(B44+B46,2))</f>
         <v>0</v>
       </c>
       <c r="C48" s="49">
-        <f>(ROUND(C44+C46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D48" s="49">
-        <f>(ROUND(D44+D46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E48" s="49">
-        <f>(ROUND(E44+E46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F48" s="49">
-        <f>(ROUND(F44+F46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G48" s="49">
-        <f>(ROUND(G44+G46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H48" s="49">
-        <f>(ROUND(H44+H46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I48" s="49">
-        <f>(ROUND(I44+I46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J48" s="49">
-        <f>(ROUND(J44+J46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K48" s="49">
-        <f>(ROUND(K44+K46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L48" s="49">
-        <f>(ROUND(L44+L46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M48" s="104">
-        <f>(ROUND(M44+M46,2))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3147,51 +3147,51 @@
         <v>8</v>
       </c>
       <c r="B52" s="49">
-        <f t="shared" ref="B52:M52" si="9">(ROUND(B48-B50,2))</f>
+        <f t="shared" ref="B52:M52" si="10">(ROUND(B48-B50,2))</f>
         <v>0</v>
       </c>
       <c r="C52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L52" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M52" s="104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3283,47 +3283,47 @@
         <v>0</v>
       </c>
       <c r="C58" s="49">
-        <f t="shared" ref="C58:M58" si="10">(ROUND(C52+C56+C54,2))</f>
+        <f t="shared" ref="C58:M58" si="11">(ROUND(C52+C56+C54,2))</f>
         <v>0</v>
       </c>
       <c r="D58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L58" s="49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M58" s="104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3347,51 +3347,51 @@
         <v>102</v>
       </c>
       <c r="B60" s="49">
-        <f t="shared" ref="B60:M60" si="11">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
+        <f t="shared" ref="B60:M60" si="12">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
         <v>0</v>
       </c>
       <c r="C60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L60" s="49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M60" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3447,51 +3447,51 @@
         <v>104</v>
       </c>
       <c r="B64" s="49">
-        <f t="shared" ref="B64:M64" si="12">(ROUND(B60-B62,2))</f>
+        <f t="shared" ref="B64:M64" si="13">(ROUND(B60-B62,2))</f>
         <v>0</v>
       </c>
       <c r="C64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L64" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M64" s="104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3532,51 +3532,51 @@
         <v>7</v>
       </c>
       <c r="B67" s="49">
-        <f t="shared" ref="B67:M67" si="13">B66</f>
+        <f t="shared" ref="B67:M67" si="14">B66</f>
         <v>0</v>
       </c>
       <c r="C67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L67" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M67" s="104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3602,51 +3602,51 @@
         <v>5</v>
       </c>
       <c r="B69" s="49">
-        <f t="shared" ref="B69:M69" si="14">B68</f>
+        <f t="shared" ref="B69:M69" si="15">B68</f>
         <v>0</v>
       </c>
       <c r="C69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L69" s="49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M69" s="104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3655,51 +3655,51 @@
         <v>4</v>
       </c>
       <c r="B70" s="49">
-        <f t="shared" ref="B70:M70" si="15">SUM(ROUND(B67-B69,2))</f>
+        <f t="shared" ref="B70:M70" si="16">SUM(ROUND(B67-B69,2))</f>
         <v>0</v>
       </c>
       <c r="C70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L70" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M70" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3740,51 +3740,51 @@
         <v>106</v>
       </c>
       <c r="B73" s="49">
-        <f t="shared" ref="B73:M73" si="16">SUM(ROUND(B64+B70-B71,2))</f>
+        <f t="shared" ref="B73:M73" si="17">SUM(ROUND(B64+B70-B71,2))</f>
         <v>0</v>
       </c>
       <c r="C73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L73" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M73" s="104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3860,51 +3860,51 @@
         <v>15. Net Profit/loss [13-14]</v>
       </c>
       <c r="B78" s="49">
-        <f>B73-B75-B76</f>
+        <f>B73-B75-B77</f>
         <v>0</v>
       </c>
       <c r="C78" s="49">
-        <f>IF(B78="","",SUM((ROUND(C73-(C76+C75),2))))</f>
+        <f>IF(B78="","",SUM((ROUND(C73-(C77+C75),2))))</f>
         <v>0</v>
       </c>
       <c r="D78" s="49">
-        <f>IF(A78="","",SUM((ROUND(D73-(D76+D75),2))))</f>
+        <f>IF(A78="","",SUM((ROUND(D73-(D77+D75),2))))</f>
         <v>0</v>
       </c>
       <c r="E78" s="49">
-        <f>IF(A78="","",SUM((ROUND(E73-(E76+E75),2))))</f>
+        <f>IF(A78="","",SUM((ROUND(E73-(E77+E75),2))))</f>
         <v>0</v>
       </c>
       <c r="F78" s="49">
-        <f>IF(C78="","",SUM((ROUND(F73-(F76+F75),2))))</f>
+        <f>IF(C78="","",SUM((ROUND(F73-(F77+F75),2))))</f>
         <v>0</v>
       </c>
       <c r="G78" s="49">
-        <f>IF(D78="","",SUM((ROUND(G73-(G76+G75),2))))</f>
+        <f>IF(D78="","",SUM((ROUND(G73-(G77+G75),2))))</f>
         <v>0</v>
       </c>
       <c r="H78" s="49">
-        <f>IF(E78="","",SUM((ROUND(H73-(H76+H75),2))))</f>
+        <f>IF(E78="","",SUM((ROUND(H73-(H77+H75),2))))</f>
         <v>0</v>
       </c>
       <c r="I78" s="49">
-        <f>IF(F78="","",SUM((ROUND(I73-(I76+I75),2))))</f>
+        <f>IF(F78="","",SUM((ROUND(I73-(I77+I75),2))))</f>
         <v>0</v>
       </c>
       <c r="J78" s="49">
-        <f>IF(F78="","",SUM((ROUND(J73-(J76+J75),2))))</f>
+        <f>IF(F78="","",SUM((ROUND(J73-(J77+J75),2))))</f>
         <v>0</v>
       </c>
       <c r="K78" s="49">
-        <f>IF(G78="","",SUM((ROUND(K73-(K76+K75),2))))</f>
+        <f>IF(G78="","",SUM((ROUND(K73-(K77+K75),2))))</f>
         <v>0</v>
       </c>
       <c r="L78" s="49">
-        <f>IF(H78="","",SUM((ROUND(L73-(L76+L75),2))))</f>
+        <f>IF(H78="","",SUM((ROUND(L73-(L77+L75),2))))</f>
         <v>0</v>
       </c>
       <c r="M78" s="104">
-        <f>IF(I78="","",SUM((ROUND(M73-(M76+M75),2))))</f>
+        <f>IF(I78="","",SUM((ROUND(M73-(M77+M75),2))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4031,51 +4031,51 @@
         <v>109</v>
       </c>
       <c r="B84" s="49">
-        <f t="shared" ref="B84:M84" si="17">B78-B80</f>
+        <f t="shared" ref="B84:M84" si="18">B78-B80</f>
         <v>0</v>
       </c>
       <c r="C84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L84" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M84" s="104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4099,56 +4099,56 @@
         <v>110</v>
       </c>
       <c r="B86" s="50">
-        <f t="shared" ref="B86:M86" si="18">IFERROR((B84/B78),0)</f>
+        <f t="shared" ref="B86:M86" si="19">IFERROR((B84/B78),0)</f>
         <v>0</v>
       </c>
       <c r="C86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L86" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M86" s="106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BsmTXYPCDduW8uo+x4Wjiog5Usd5Fw35BXK06T+zGQrqfu6Dhv9QF/ynhE3czc3GijSPXYvHmCd+tMN6i2QgIw==" saltValue="efcxZt1rYQuwhgUOcDHT5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Pwuj8CIEL4y+P0wGFfCn1xu3/6DcIw6eLrbxiCRwRsnTwzkkSkVcRJEAgjFwJs+WRlI49rPmbs8r/0GOA2DN1Q==" saltValue="akJVuPbN0JJNfhaGwiCoTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="68">
-        <f t="shared" ref="B15:M15" si="0">SUM(ROUND(D11+D12,2))</f>
+        <f t="shared" ref="D15:M15" si="0">SUM(ROUND(D11+D12,2))</f>
         <v>0</v>
       </c>
       <c r="E15" s="68">
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="82">
-        <f t="shared" ref="B87:M87" si="8">SUM(ROUND(C63+C85,2))</f>
+        <f t="shared" ref="C87:M87" si="8">SUM(ROUND(C63+C85,2))</f>
         <v>0</v>
       </c>
       <c r="D87" s="82">
@@ -6063,12 +6063,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8480,6 +8480,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="AjL5mar7wgLPvac6BlJB0XUYC6V5Eqnr3Hb6j84Cb16ksyH4cZ7g1s3iYJ6TJbhMjjIE/eWDZ+odLkYp05QBhg==" saltValue="p3uk3iD0ptTlDDUKr/O9yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -8492,11 +8497,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="168">
   <si>
     <t xml:space="preserve">     [b] Dividend Rate [in %]</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>1. Gross Sales</t>
-  </si>
-  <si>
-    <t>Projected</t>
   </si>
   <si>
     <t>Estimated</t>
@@ -1223,7 +1220,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1250,23 +1247,13 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1277,9 +1264,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1287,9 +1271,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1299,22 +1280,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1482,17 +1451,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1883,2272 +1844,1044 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="17.7109375" style="25" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="7.5703125" style="25" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="25" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="51.85546875" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="7.5703125" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="9.140625" style="20" hidden="1" collapsed="1"/>
+    <col min="11" max="13" width="0" style="20" hidden="1"/>
+    <col min="14" max="15" width="7.5703125" style="20" hidden="1"/>
+    <col min="16" max="18" width="9.140625" style="20" hidden="1"/>
+    <col min="19" max="16384" width="9.140625" style="20" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="24" t="s">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="25" t="s">
+      <c r="I1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="25" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="103" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="115" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-    </row>
-    <row r="4" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="28" t="s">
-        <v>41</v>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="30">
         <v>2015</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="30">
         <f>B5+1</f>
         <v>2016</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="30">
         <f>C5+1</f>
         <v>2017</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="30">
         <f>D5+1</f>
         <v>2018</v>
       </c>
-      <c r="F5" s="39">
-        <f t="shared" ref="F5:M5" si="0">IF(E5&gt;0,E5+1,"")</f>
-        <v>2019</v>
-      </c>
-      <c r="G5" s="39">
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="33">
+        <f>SUM(ROUND(B8+B9+B10,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="33">
+        <f t="shared" ref="C11:E11" si="0">SUM(ROUND(C8+C9+C10,2))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="I5" s="39">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="J5" s="39">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="K5" s="39">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="L5" s="39">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="M5" s="105">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="42">
-        <f>SUM(ROUND(B8+B9+B10,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="42">
-        <f t="shared" ref="C11:M11" si="1">SUM(ROUND(C8+C9+C10,2))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="42">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="33">
+        <f t="shared" ref="B15:E15" si="1">IF(B11=0,0,SUM(ROUND((B11)-(B13+B14),2)))</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="42">
+      <c r="D15" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="42">
+      <c r="E15" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="42">
-        <f t="shared" ref="B15:M15" si="2">IF(B11=0,0,SUM(ROUND((B11)-(B13+B14),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="42">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="35">
+        <f t="shared" ref="C17:E17" si="2">IFERROR(((C15-B15)/B15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D15" s="42">
+      <c r="E17" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="102">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44">
-        <f t="shared" ref="C17:M17" si="3">IFERROR(((C15-B15)/B15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="44">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="33">
+        <f t="shared" ref="B20:E20" si="3">B21+B22</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E17" s="44">
+      <c r="D20" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F17" s="44">
+      <c r="E20" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="42">
-        <f t="shared" ref="B20:M20" si="4">B21+B22</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="42">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33">
+        <f t="shared" ref="B24:E24" si="4">B25+B26</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D24" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E24" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F20" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="102">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="42">
-        <f t="shared" ref="B24:M24" si="5">B25+B26</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="42">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="33">
+        <f t="shared" ref="B36:E36" si="5">SUM(ROUND(B20+B24+B28+B30+B32+B34,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D36" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E36" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F24" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="102">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="42">
-        <f t="shared" ref="B36:M36" si="6">SUM(ROUND(B20+B24+B28+B30+B32+B34,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="42">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="37">
+        <f t="shared" ref="B40:E40" si="6">SUM(ROUND(B36+B38,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D40" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E40" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F36" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="102">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
-    </row>
-    <row r="38" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="46">
-        <f t="shared" ref="B40:M40" si="7">SUM(ROUND(B36+B38,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="42">
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="40">
+        <f>B40-B42</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="40">
+        <f t="shared" ref="C44:E44" si="7">C40-C42</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D40" s="42">
+      <c r="E44" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E40" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="102">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="49">
-        <f>B40-B42</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="49">
-        <f t="shared" ref="C44:M44" si="8">C40-C42</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="49">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="40">
+        <f t="shared" ref="B48:E48" si="8">(ROUND(B44+B46,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E44" s="49">
+      <c r="D48" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F44" s="49">
+      <c r="E48" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G44" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="104">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="11"/>
-    </row>
-    <row r="46" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="49">
-        <f t="shared" ref="B48:M48" si="9">(ROUND(B44+B46,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="49">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="40">
+        <f t="shared" ref="B52:E52" si="9">(ROUND(B48-B50,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D52" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E52" s="40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F48" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="104">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="11"/>
-    </row>
-    <row r="50" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="11"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="49">
-        <f t="shared" ref="B52:M52" si="10">(ROUND(B48-B50,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="49">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="40">
+        <f>(ROUND(B52+B56+B54,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="40">
+        <f t="shared" ref="C58:E58" si="10">(ROUND(C52+C56+C54,2))</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D52" s="49">
+      <c r="E58" s="40">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E52" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="11"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="49">
-        <f>(ROUND(B52+B56+B54,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="49">
-        <f t="shared" ref="C58:M58" si="11">(ROUND(C52+C56+C54,2))</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="49">
+      <c r="B60" s="40">
+        <f t="shared" ref="B60:E60" si="11">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E58" s="49">
+      <c r="D60" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F58" s="49">
+      <c r="E60" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G58" s="49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="104">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="14"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="49">
-        <f t="shared" ref="B60:M60" si="12">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="49">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="40">
+        <f t="shared" ref="B64:E64" si="12">(ROUND(B60-B62,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D64" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E64" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F60" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="104">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="49">
-        <f t="shared" ref="B64:M64" si="13">(ROUND(B60-B62,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="49">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="40">
+        <f t="shared" ref="B67:E67" si="13">B66</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D64" s="49">
+      <c r="D67" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E67" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F64" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="104">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="11"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="40">
+        <f t="shared" ref="B69:E69" si="14">B68</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="40">
+        <f t="shared" ref="B70:E70" si="15">SUM(ROUND(B67-B69,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="49">
-        <f t="shared" ref="B67:M67" si="14">B66</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="104">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="11"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="49">
-        <f t="shared" ref="B69:M69" si="15">B68</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="49">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="104">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="49">
-        <f t="shared" ref="B70:M70" si="16">SUM(ROUND(B67-B69,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="49">
+      <c r="B73" s="40">
+        <f t="shared" ref="B73:E73" si="16">SUM(ROUND(B64+B70-B71,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D70" s="49">
+      <c r="D73" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E70" s="49">
+      <c r="E73" s="40">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F70" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="49">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="104">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="49">
-        <f t="shared" ref="B73:M73" si="17">SUM(ROUND(B64+B70-B71,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="104">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="11"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="11"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="11"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="str">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="str">
         <f>IF(A79="15. Profit After Tax [for the year]","","15. Net Profit/loss [13-14]")</f>
         <v>15. Net Profit/loss [13-14]</v>
       </c>
-      <c r="B78" s="49">
+      <c r="B78" s="40">
         <f>B73-B75-B77</f>
         <v>0</v>
       </c>
-      <c r="C78" s="49">
+      <c r="C78" s="40">
         <f>IF(B78="","",SUM((ROUND(C73-(C77+C75),2))))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="49">
+      <c r="D78" s="40">
         <f>IF(A78="","",SUM((ROUND(D73-(D77+D75),2))))</f>
         <v>0</v>
       </c>
-      <c r="E78" s="49">
+      <c r="E78" s="40">
         <f>IF(A78="","",SUM((ROUND(E73-(E77+E75),2))))</f>
         <v>0</v>
       </c>
-      <c r="F78" s="49">
-        <f>IF(C78="","",SUM((ROUND(F73-(F77+F75),2))))</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="49">
-        <f>IF(D78="","",SUM((ROUND(G73-(G77+G75),2))))</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="49">
-        <f>IF(E78="","",SUM((ROUND(H73-(H77+H75),2))))</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="49">
-        <f>IF(F78="","",SUM((ROUND(I73-(I77+I75),2))))</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="49">
-        <f>IF(F78="","",SUM((ROUND(J73-(J77+J75),2))))</f>
-        <v>0</v>
-      </c>
-      <c r="K78" s="49">
-        <f>IF(G78="","",SUM((ROUND(K73-(K77+K75),2))))</f>
-        <v>0</v>
-      </c>
-      <c r="L78" s="49">
-        <f>IF(H78="","",SUM((ROUND(L73-(L77+L75),2))))</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="104">
-        <f>IF(I78="","",SUM((ROUND(M73-(M77+M75),2))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="str">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="str">
         <f>IF(OR(B76&gt;0,C76&gt;0,D76&gt;0,E76&gt;0),"14. Profit After Tax [for the year]","")</f>
         <v/>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="11"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="40">
+        <f>IFERROR((B80/Liabilities!B67),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="40">
+        <f>IFERROR((C80/Liabilities!C67),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="40">
+        <f>IFERROR((D80/Liabilities!D67),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="40">
+        <f>IFERROR((E80/Liabilities!E67),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="11"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="11"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="49">
-        <f>IFERROR((B80/Liabilities!B67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="49">
-        <f>IFERROR((C80/Liabilities!C67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="49">
-        <f>IFERROR((D80/Liabilities!D67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="49">
-        <f>IFERROR((E80/Liabilities!E67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="49">
-        <f>IFERROR((F80/Liabilities!F67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="49">
-        <f>IFERROR((G80/Liabilities!G67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="49">
-        <f>IFERROR((H80/Liabilities!H67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="49">
-        <f>IFERROR((I80/Liabilities!I67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="49">
-        <f>IFERROR((J80/Liabilities!J67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K82" s="49">
-        <f>IFERROR((K80/Liabilities!K67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L82" s="49">
-        <f>IFERROR((L80/Liabilities!L67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="104">
-        <f>IFERROR((M80/Liabilities!M67),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="11"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
+      <c r="B84" s="40">
+        <f t="shared" ref="B84:E84" si="17">B78-B80</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="49">
-        <f t="shared" ref="B84:M84" si="18">B78-B80</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="49">
+      <c r="B86" s="41">
+        <f t="shared" ref="B86:E86" si="18">IFERROR((B84/B78),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="41">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="D84" s="49">
+      <c r="D86" s="41">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E84" s="49">
+      <c r="E86" s="41">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F84" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="49">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="104">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="11"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" s="50">
-        <f t="shared" ref="B86:M86" si="19">IFERROR((B84/B78),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L86" s="50">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="106">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Pwuj8CIEL4y+P0wGFfCn1xu3/6DcIw6eLrbxiCRwRsnTwzkkSkVcRJEAgjFwJs+WRlI49rPmbs8r/0GOA2DN1Q==" saltValue="akJVuPbN0JJNfhaGwiCoTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="43hQJQ+uaU5zsIuQWkFeNt1MC3H/E52Oed7WULemk8PhVtBGrj63ZqPzuUuwmyB8gNBCzUnzN3YbF7wFQ30QXw==" saltValue="8pvodnTfFe6Iqa2tKAL2SQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -4156,15 +2889,15 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:M16 B18:M81">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:E16 B18:E81">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:M86 B17:M17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 D4">
-      <formula1>$N$2</formula1>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:E86 B17:E17"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+      <formula1>$F$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4 E4">
-      <formula1>$N$1:$R$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+      <formula1>$F$1:$J$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4177,252 +2910,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="17.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="56" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="46.7109375" style="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.7109375" style="47" customWidth="1" collapsed="1"/>
+    <col min="6" max="13" width="17.7109375" style="47" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="47" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="53" t="s">
+    <row r="1" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="54" t="s">
+      <c r="L1" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59">
-        <f>'Operating Stmt.'!L4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="59">
-        <f>'Operating Stmt.'!M4</f>
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M4" s="50" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="39">
+      <c r="A5" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="30">
         <f>'Operating Stmt.'!B5</f>
         <v>2015</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="30">
         <f>'Operating Stmt.'!C5</f>
         <v>2016</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="30">
         <f>'Operating Stmt.'!D5</f>
         <v>2017</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="30">
         <f>'Operating Stmt.'!E5</f>
         <v>2018</v>
       </c>
-      <c r="F5" s="39">
-        <f>'Operating Stmt.'!F5</f>
-        <v>2019</v>
-      </c>
-      <c r="G5" s="39">
-        <f>'Operating Stmt.'!G5</f>
-        <v>2020</v>
-      </c>
-      <c r="H5" s="39">
-        <f>'Operating Stmt.'!H5</f>
-        <v>2021</v>
-      </c>
-      <c r="I5" s="39">
-        <f>'Operating Stmt.'!I5</f>
-        <v>2022</v>
-      </c>
-      <c r="J5" s="39">
-        <f>'Operating Stmt.'!J5</f>
-        <v>2023</v>
-      </c>
-      <c r="K5" s="39">
-        <f>'Operating Stmt.'!K5</f>
-        <v>2024</v>
-      </c>
-      <c r="L5" s="39">
-        <f>'Operating Stmt.'!L5</f>
-        <v>2025</v>
-      </c>
-      <c r="M5" s="105">
-        <f>'Operating Stmt.'!M5</f>
-        <v>2026</v>
+      <c r="F5" s="30" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="30" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="30" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="30" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="30" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="30" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="30" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M5" s="93" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122" t="str">
+      <c r="A6" s="108"/>
+      <c r="B6" s="109" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="122" t="str">
+      <c r="C6" s="109" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="122" t="str">
+      <c r="D6" s="109" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="122" t="str">
+      <c r="E6" s="109" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="122" t="str">
-        <f>+'Operating Stmt.'!F6:F6</f>
-        <v>Projected</v>
-      </c>
-      <c r="G6" s="122" t="str">
-        <f>+'Operating Stmt.'!G6:G6</f>
-        <v>Projected</v>
-      </c>
-      <c r="H6" s="122" t="str">
-        <f>+'Operating Stmt.'!H6:H6</f>
-        <v>Projected</v>
-      </c>
-      <c r="I6" s="122" t="str">
-        <f>+'Operating Stmt.'!I6:I6</f>
-        <v>Projected</v>
-      </c>
-      <c r="J6" s="122" t="str">
-        <f>+'Operating Stmt.'!J6:J6</f>
-        <v>Projected</v>
-      </c>
-      <c r="K6" s="122" t="str">
-        <f>+'Operating Stmt.'!K6:K6</f>
-        <v>Projected</v>
-      </c>
-      <c r="L6" s="122" t="str">
-        <f>+'Operating Stmt.'!L6:L6</f>
-        <v>Projected</v>
-      </c>
-      <c r="M6" s="129" t="str">
-        <f>+'Operating Stmt.'!M6:M6</f>
-        <v>Projected</v>
+      <c r="F6" s="109" t="e">
+        <f>+'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="109" t="e">
+        <f>+'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="109" t="e">
+        <f>+'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="109" t="e">
+        <f>+'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="109" t="e">
+        <f>+'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" s="109" t="e">
+        <f>+'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="109" t="e">
+        <f>+'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M6" s="116" t="e">
+        <f>+'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="130"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="117"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61"/>
+      <c r="A8" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="A9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4434,12 +3168,12 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4451,12 +3185,12 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
+      <c r="A11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4468,12 +3202,12 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4485,12 +3219,12 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4502,12 +3236,12 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="A14" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4519,63 +3253,63 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="68">
+      <c r="A15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="59">
         <f>SUM(ROUND(B11+B12,2))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="59">
         <f>SUM(ROUND(C11+C12,2))</f>
         <v>0</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="59">
         <f t="shared" ref="D15:M15" si="0">SUM(ROUND(D11+D12,2))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="107">
+      <c r="M15" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4587,12 +3321,12 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
+      <c r="A17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4604,10 +3338,10 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4619,12 +3353,12 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
+      <c r="A19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4636,10 +3370,10 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -4651,12 +3385,12 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="A21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -4668,10 +3402,10 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4683,12 +3417,12 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="A23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="5"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -4700,10 +3434,10 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4715,12 +3449,12 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
+      <c r="A25" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -4732,10 +3466,10 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -4747,12 +3481,12 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
+      <c r="A27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -4764,10 +3498,10 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -4779,12 +3513,12 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="A29" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -4796,10 +3530,10 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -4808,13 +3542,13 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="20"/>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4826,12 +3560,12 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="A32" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="5"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4843,10 +3577,10 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="118"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -4858,10 +3592,10 @@
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4873,63 +3607,63 @@
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="68">
+      <c r="A35" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="59">
         <f t="shared" ref="B35:M35" si="1">SUM(ROUND(B17+B19+B21+B23+B25+B27+B29+B32,2))</f>
         <v>0</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="68">
+      <c r="G35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="68">
+      <c r="I35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="68">
+      <c r="J35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K35" s="68">
+      <c r="K35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L35" s="68">
+      <c r="L35" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="107">
+      <c r="M35" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4941,80 +3675,80 @@
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="68">
+      <c r="A37" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="59">
         <f t="shared" ref="B37:M37" si="2">SUM(ROUND(B15+B35,2))</f>
         <v>0</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="68">
+      <c r="I37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="68">
+      <c r="J37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K37" s="68">
+      <c r="K37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L37" s="68">
+      <c r="L37" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M37" s="107">
+      <c r="M37" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="63"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
+      <c r="A39" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -5026,10 +3760,10 @@
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -5041,12 +3775,12 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
+      <c r="A41" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="5"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -5058,10 +3792,10 @@
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -5073,12 +3807,12 @@
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
+      <c r="A43" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="5"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -5090,10 +3824,10 @@
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5105,65 +3839,65 @@
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="67">
+      <c r="A45" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="58">
         <f>SUM(ROUND(B46+B47,2))</f>
         <v>0</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="58">
         <f t="shared" ref="C45:M45" si="3">SUM(ROUND(C46+C47,2))</f>
         <v>0</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E45" s="67">
+      <c r="E45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J45" s="67">
+      <c r="J45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K45" s="67">
+      <c r="K45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L45" s="67">
+      <c r="L45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M45" s="67">
+      <c r="M45" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
+      <c r="A46" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="5"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5175,12 +3909,12 @@
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
+      <c r="A47" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -5192,10 +3926,10 @@
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -5207,12 +3941,12 @@
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
+      <c r="A49" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -5224,12 +3958,12 @@
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
+      <c r="A50" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -5241,12 +3975,12 @@
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
+      <c r="A51" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -5255,13 +3989,13 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="20"/>
+      <c r="M51" s="16"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -5273,12 +4007,12 @@
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
+      <c r="A53" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -5290,10 +4024,10 @@
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5305,199 +4039,199 @@
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="68">
+      <c r="A55" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="59">
         <f t="shared" ref="B55:M55" si="4">SUM(ROUND(B41+B43+B45+B49+B51+B53,2))</f>
         <v>0</v>
       </c>
-      <c r="C55" s="68">
+      <c r="C55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D55" s="68">
+      <c r="D55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E55" s="68">
+      <c r="E55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F55" s="68">
+      <c r="F55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G55" s="68">
+      <c r="G55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H55" s="68">
+      <c r="H55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I55" s="68">
+      <c r="I55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J55" s="68">
+      <c r="J55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K55" s="68">
+      <c r="K55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L55" s="68">
+      <c r="L55" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M55" s="107">
+      <c r="M55" s="94">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="22"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="18"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="67">
+      <c r="A57" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="58">
         <f>SUM(ROUND(B58+B59+B60+B61,2))</f>
         <v>0</v>
       </c>
-      <c r="C57" s="67">
+      <c r="C57" s="58">
         <f t="shared" ref="C57:M57" si="5">SUM(ROUND(C58+C59+C60+C61,2))</f>
         <v>0</v>
       </c>
-      <c r="D57" s="67">
+      <c r="D57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E57" s="67">
+      <c r="E57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F57" s="67">
+      <c r="F57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G57" s="67">
+      <c r="G57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H57" s="67">
+      <c r="H57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I57" s="67">
+      <c r="I57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J57" s="67">
+      <c r="J57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K57" s="67">
+      <c r="K57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L57" s="67">
+      <c r="L57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M57" s="67">
+      <c r="M57" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="18"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="22"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="22"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="22"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="18"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="22"/>
+      <c r="A61" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -5509,63 +4243,63 @@
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="68">
+      <c r="A63" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="59">
         <f t="shared" ref="B63:M63" si="6">SUM(ROUND(B37+B55+B57,2))</f>
         <v>0</v>
       </c>
-      <c r="C63" s="68">
+      <c r="C63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D63" s="68">
+      <c r="D63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E63" s="68">
+      <c r="E63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F63" s="68">
+      <c r="F63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G63" s="68">
+      <c r="G63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H63" s="68">
+      <c r="H63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I63" s="68">
+      <c r="I63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J63" s="68">
+      <c r="J63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K63" s="68">
+      <c r="K63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L63" s="68">
+      <c r="L63" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M63" s="107">
+      <c r="M63" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -5577,12 +4311,12 @@
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
+      <c r="A65" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -5594,10 +4328,10 @@
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -5609,12 +4343,12 @@
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
+      <c r="A67" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
       <c r="E67" s="5"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -5626,10 +4360,10 @@
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="5"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -5641,12 +4375,12 @@
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
+      <c r="A69" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
       <c r="E69" s="5"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -5658,10 +4392,10 @@
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -5673,12 +4407,12 @@
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
+      <c r="A71" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -5690,10 +4424,10 @@
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -5705,12 +4439,12 @@
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
+      <c r="A73" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="5"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -5722,10 +4456,10 @@
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -5737,12 +4471,12 @@
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
+      <c r="A75" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="5"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -5754,10 +4488,10 @@
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -5769,12 +4503,12 @@
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
+      <c r="A77" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="5"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -5786,10 +4520,10 @@
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -5801,12 +4535,12 @@
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
+      <c r="A79" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
       <c r="E79" s="5"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5818,10 +4552,10 @@
       <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -5833,12 +4567,12 @@
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
+      <c r="A81" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -5850,10 +4584,10 @@
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5865,12 +4599,12 @@
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
+      <c r="A83" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -5882,10 +4616,10 @@
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5897,63 +4631,63 @@
       <c r="M84" s="4"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="68">
+      <c r="A85" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="59">
         <f>SUM(ROUND(B67+B69+B71+B73+B75+B77+B79+B81+B83,2))</f>
         <v>0</v>
       </c>
-      <c r="C85" s="68">
+      <c r="C85" s="59">
         <f t="shared" ref="C85:M85" si="7">SUM(ROUND(C67+C69+C71+C73+C75+C77+C79+C81+C83,2))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="68">
+      <c r="D85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E85" s="68">
+      <c r="E85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F85" s="68">
+      <c r="F85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G85" s="68">
+      <c r="G85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H85" s="68">
+      <c r="H85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I85" s="68">
+      <c r="I85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J85" s="68">
+      <c r="J85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K85" s="68">
+      <c r="K85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L85" s="68">
+      <c r="L85" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M85" s="107">
+      <c r="M85" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -5965,60 +4699,60 @@
       <c r="M86" s="4"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="82">
+      <c r="A87" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="73">
         <f>SUM(ROUND(B63+B85,2))</f>
         <v>0</v>
       </c>
-      <c r="C87" s="82">
+      <c r="C87" s="73">
         <f t="shared" ref="C87:M87" si="8">SUM(ROUND(C63+C85,2))</f>
         <v>0</v>
       </c>
-      <c r="D87" s="82">
+      <c r="D87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E87" s="82">
+      <c r="E87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F87" s="82">
+      <c r="F87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G87" s="82">
+      <c r="G87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H87" s="82">
+      <c r="H87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I87" s="82">
+      <c r="I87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J87" s="82">
+      <c r="J87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K87" s="82">
+      <c r="K87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L87" s="82">
+      <c r="L87" s="73">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M87" s="108">
+      <c r="M87" s="95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vh3co2K3auc2SO4KXVDI6k1EQx3Ckj3sn5ZcWM7CP3FwOAt2NiBqyHr5mfTr2P1iBb1SFynUH0U95Saz66ioXQ==" saltValue="Hcog5vwf8WANu53WAA84Zg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fmj0YJ21lQXt9wjgpuGV85vU6k5CC2HVpsj3RzdzaGabq4QO99/nBoyYvjjxeXfxe6mcbqf7YNaypxkcHprMuA==" saltValue="IsolDYy4cpDOrYQdLdHN3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="F6:F7"/>
@@ -6026,13 +4760,13 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -6064,251 +4798,252 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="85" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="17.7109375" style="56" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="56" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="45.140625" style="76" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.7109375" style="47" customWidth="1" collapsed="1"/>
+    <col min="6" max="13" width="17.7109375" style="47" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="0" style="47" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="53" t="s">
+    <row r="1" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="54" t="s">
+      <c r="L1" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59">
-        <f>'Operating Stmt.'!L4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="59">
-        <f>'Operating Stmt.'!M4</f>
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M4" s="50" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="86">
+      <c r="A5" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="77">
         <f>'Operating Stmt.'!B5</f>
         <v>2015</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="77">
         <f>'Operating Stmt.'!C5</f>
         <v>2016</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="77">
         <f>'Operating Stmt.'!D5</f>
         <v>2017</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="77">
         <f>'Operating Stmt.'!E5</f>
         <v>2018</v>
       </c>
-      <c r="F5" s="86">
-        <f>'Operating Stmt.'!F5</f>
-        <v>2019</v>
-      </c>
-      <c r="G5" s="86">
-        <f>'Operating Stmt.'!G5</f>
-        <v>2020</v>
-      </c>
-      <c r="H5" s="86">
-        <f>'Operating Stmt.'!H5</f>
-        <v>2021</v>
-      </c>
-      <c r="I5" s="86">
-        <f>'Operating Stmt.'!I5</f>
-        <v>2022</v>
-      </c>
-      <c r="J5" s="86">
-        <f>'Operating Stmt.'!J5</f>
-        <v>2023</v>
-      </c>
-      <c r="K5" s="86">
-        <f>'Operating Stmt.'!K5</f>
-        <v>2024</v>
-      </c>
-      <c r="L5" s="86">
-        <f>'Operating Stmt.'!L5</f>
-        <v>2025</v>
-      </c>
-      <c r="M5" s="109">
-        <f>'Operating Stmt.'!M5</f>
-        <v>2026</v>
+      <c r="F5" s="77" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="77" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="77" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="77" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="77" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="77" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="77" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M5" s="96" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="122" t="str">
+      <c r="A6" s="120"/>
+      <c r="B6" s="109" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="122" t="str">
+      <c r="C6" s="109" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="122" t="str">
+      <c r="D6" s="109" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="122" t="str">
+      <c r="E6" s="109" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="122" t="str">
+      <c r="F6" s="109" t="e">
         <f>Liabilities!F6</f>
-        <v>Projected</v>
-      </c>
-      <c r="G6" s="122" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="109" t="e">
         <f>Liabilities!G6</f>
-        <v>Projected</v>
-      </c>
-      <c r="H6" s="122" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="109" t="e">
         <f>Liabilities!H6</f>
-        <v>Projected</v>
-      </c>
-      <c r="I6" s="122" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="109" t="e">
         <f>Liabilities!I6</f>
-        <v>Projected</v>
-      </c>
-      <c r="J6" s="122" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="109" t="e">
         <f>Liabilities!J6</f>
-        <v>Projected</v>
-      </c>
-      <c r="K6" s="122" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K6" s="109" t="e">
         <f>Liabilities!K6</f>
-        <v>Projected</v>
-      </c>
-      <c r="L6" s="122" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="109" t="e">
         <f>Liabilities!L6</f>
-        <v>Projected</v>
-      </c>
-      <c r="M6" s="129" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="M6" s="116" t="e">
         <f>Liabilities!M6</f>
-        <v>Projected</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="131"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="118"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
+      <c r="A8" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="A9" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -6320,10 +5055,10 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -6335,65 +5070,65 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="93">
+      <c r="A11" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="84">
         <f t="shared" ref="B11:M11" si="0">SUM(ROUND(B13+B15,2))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="93">
+      <c r="L11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="110">
+      <c r="M11" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
+      <c r="A12" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="82"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -6405,12 +5140,12 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="A13" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6422,12 +5157,12 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
+      <c r="A14" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -6439,12 +5174,12 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="A15" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="82"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -6456,12 +5191,12 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="A16" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="82"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -6473,12 +5208,12 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="6"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -6490,12 +5225,12 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
+      <c r="A18" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="82"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -6507,12 +5242,12 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="6"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -6524,12 +5259,12 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+      <c r="A20" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="82"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -6541,10 +5276,10 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -6556,63 +5291,63 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="93">
+      <c r="A22" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="84">
         <f t="shared" ref="B22:M22" si="1">SUM(ROUND(B24+B29+B31+B33,2))</f>
         <v>0</v>
       </c>
-      <c r="C22" s="93">
+      <c r="C22" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="J22" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="110">
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="97" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -6624,65 +5359,65 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="93">
+      <c r="A24" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="84">
         <f t="shared" ref="B24:M24" si="2">SUM(ROUND(B26+B27,2))</f>
         <v>0</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="68">
+      <c r="L24" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="107">
+      <c r="M24" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="A25" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="82"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6694,12 +5429,12 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="A26" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="82"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6711,12 +5446,12 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
+      <c r="A27" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="82"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6728,10 +5463,10 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -6743,63 +5478,63 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="93">
+      <c r="A29" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="84">
         <f>'Operating Stmt.'!B42</f>
         <v>0</v>
       </c>
-      <c r="C29" s="93">
+      <c r="C29" s="84">
         <f>'Operating Stmt.'!C42</f>
         <v>0</v>
       </c>
-      <c r="D29" s="93">
+      <c r="D29" s="84">
         <f>'Operating Stmt.'!D42</f>
         <v>0</v>
       </c>
-      <c r="E29" s="93">
+      <c r="E29" s="84">
         <f>'Operating Stmt.'!E42</f>
         <v>0</v>
       </c>
-      <c r="F29" s="93">
-        <f>'Operating Stmt.'!F42</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="93">
-        <f>'Operating Stmt.'!G42</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="93">
-        <f>'Operating Stmt.'!H42</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="93">
-        <f>'Operating Stmt.'!I42</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="93">
-        <f>'Operating Stmt.'!J42</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="93">
-        <f>'Operating Stmt.'!K42</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="93">
-        <f>'Operating Stmt.'!L42</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="110">
-        <f>'Operating Stmt.'!M42</f>
-        <v>0</v>
+      <c r="F29" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I29" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J29" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K29" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L29" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M29" s="97" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6811,63 +5546,63 @@
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="93">
+      <c r="A31" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="84">
         <f>'Operating Stmt.'!B50</f>
         <v>0</v>
       </c>
-      <c r="C31" s="93">
+      <c r="C31" s="84">
         <f>'Operating Stmt.'!C50</f>
         <v>0</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="84">
         <f>'Operating Stmt.'!D50</f>
         <v>0</v>
       </c>
-      <c r="E31" s="93">
+      <c r="E31" s="84">
         <f>'Operating Stmt.'!E50</f>
         <v>0</v>
       </c>
-      <c r="F31" s="93">
-        <f>'Operating Stmt.'!F50</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="93">
-        <f>'Operating Stmt.'!G50</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="93">
-        <f>'Operating Stmt.'!H50</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="93">
-        <f>'Operating Stmt.'!I50</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="93">
-        <f>'Operating Stmt.'!J50</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="93">
-        <f>'Operating Stmt.'!K50</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="93">
-        <f>'Operating Stmt.'!L50</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="110">
-        <f>'Operating Stmt.'!M50</f>
-        <v>0</v>
+      <c r="F31" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I31" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J31" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K31" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L31" s="84" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M31" s="97" t="e">
+        <f>'Operating Stmt.'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6879,65 +5614,65 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="93">
+      <c r="A33" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="84">
         <f t="shared" ref="B33:M33" si="3">SUM(ROUND(B34+B35,2))</f>
         <v>0</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D33" s="68">
+      <c r="D33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="68">
+      <c r="I33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="68">
+      <c r="J33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="68">
+      <c r="K33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="68">
+      <c r="L33" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="107">
+      <c r="M33" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
+      <c r="A34" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="82"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -6949,12 +5684,12 @@
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
+      <c r="A35" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="82"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -6966,10 +5701,10 @@
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -6981,12 +5716,12 @@
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
+      <c r="A37" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="82"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -6998,12 +5733,12 @@
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
+      <c r="A38" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
       <c r="E38" s="6"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -7015,12 +5750,12 @@
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
+      <c r="A39" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="82"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -7032,10 +5767,10 @@
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
       <c r="E40" s="6"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -7047,12 +5782,12 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
+      <c r="A41" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="82"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -7064,10 +5799,10 @@
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -7079,63 +5814,63 @@
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="93">
+      <c r="A43" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="84">
         <f t="shared" ref="B43:M43" si="4">SUM(ROUND(B9+B11+B16+B18+B20+B22+B37+B39+B41,2))</f>
         <v>0</v>
       </c>
-      <c r="C43" s="68">
+      <c r="C43" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D43" s="68">
+      <c r="D43" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F43" s="68">
+      <c r="F43" s="59" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="68">
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="59" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="68">
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="59" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="68">
+        <v>#REF!</v>
+      </c>
+      <c r="I43" s="59" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="68">
+        <v>#REF!</v>
+      </c>
+      <c r="J43" s="59" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="68">
+        <v>#REF!</v>
+      </c>
+      <c r="K43" s="59" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="68">
+        <v>#REF!</v>
+      </c>
+      <c r="L43" s="59" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="107">
+        <v>#REF!</v>
+      </c>
+      <c r="M43" s="94" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -7147,65 +5882,65 @@
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="91">
+      <c r="A45" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="82">
         <f>SUM(ROUND(B46+B47+B48+B49+B50,2))</f>
         <v>0</v>
       </c>
-      <c r="C45" s="91">
+      <c r="C45" s="82">
         <f t="shared" ref="C45:M45" si="5">SUM(ROUND(C46+C47+C48+C49+C50,2))</f>
         <v>0</v>
       </c>
-      <c r="D45" s="91">
+      <c r="D45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E45" s="91">
+      <c r="E45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F45" s="91">
+      <c r="F45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G45" s="91">
+      <c r="G45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H45" s="91">
+      <c r="H45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I45" s="91">
+      <c r="I45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J45" s="91">
+      <c r="J45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K45" s="91">
+      <c r="K45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L45" s="91">
+      <c r="L45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M45" s="91">
+      <c r="M45" s="82">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
+      <c r="A46" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="82"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -7217,12 +5952,12 @@
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
+      <c r="A47" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="82"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -7234,10 +5969,10 @@
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -7249,10 +5984,10 @@
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -7264,10 +5999,10 @@
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -7279,12 +6014,12 @@
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
+      <c r="A51" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="6"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -7296,12 +6031,12 @@
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="91"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
+      <c r="A52" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="82"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -7313,10 +6048,10 @@
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
       <c r="E53" s="6"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -7328,12 +6063,12 @@
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
+      <c r="A54" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="82"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -7345,10 +6080,10 @@
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -7360,63 +6095,63 @@
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="93">
+      <c r="A56" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="84">
         <f>SUM(ROUND(B45-B52-B54,2))</f>
         <v>0</v>
       </c>
-      <c r="C56" s="93">
+      <c r="C56" s="84">
         <f t="shared" ref="C56:M56" si="6">SUM(ROUND(C45-C52-C54,2))</f>
         <v>0</v>
       </c>
-      <c r="D56" s="93">
+      <c r="D56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E56" s="93">
+      <c r="E56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F56" s="93">
+      <c r="F56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G56" s="93">
+      <c r="G56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H56" s="93">
+      <c r="H56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I56" s="93">
+      <c r="I56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J56" s="93">
+      <c r="J56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K56" s="93">
+      <c r="K56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L56" s="93">
+      <c r="L56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M56" s="93">
+      <c r="M56" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -7428,12 +6163,12 @@
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
+      <c r="A58" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="82"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -7445,10 +6180,10 @@
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -7460,12 +6195,12 @@
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="91"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
+      <c r="A60" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="82"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -7477,10 +6212,10 @@
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -7492,65 +6227,65 @@
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="93">
+      <c r="A62" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="84">
         <f>B64+B65+B67+B69+B71</f>
         <v>0</v>
       </c>
-      <c r="C62" s="68">
+      <c r="C62" s="59">
         <f t="shared" ref="C62:M62" si="7">SUM(ROUND(C64+C65+C67+C69+C71,2))</f>
         <v>0</v>
       </c>
-      <c r="D62" s="68">
+      <c r="D62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E62" s="68">
+      <c r="E62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F62" s="68">
+      <c r="F62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G62" s="68">
+      <c r="G62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H62" s="68">
+      <c r="H62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I62" s="68">
+      <c r="I62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J62" s="68">
+      <c r="J62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K62" s="68">
+      <c r="K62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L62" s="68">
+      <c r="L62" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M62" s="107">
+      <c r="M62" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
+      <c r="A63" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="82"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -7562,12 +6297,12 @@
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="91"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
+      <c r="A64" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="82"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -7579,12 +6314,12 @@
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="91"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
+      <c r="A65" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="82"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -7596,10 +6331,10 @@
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="6"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -7611,12 +6346,12 @@
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="91"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
+      <c r="A67" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="82"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -7628,12 +6363,12 @@
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
+      <c r="A68" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
       <c r="E68" s="6"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -7645,12 +6380,12 @@
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
+      <c r="A69" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="82"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -7662,12 +6397,12 @@
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
+      <c r="A70" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
       <c r="E70" s="6"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -7679,65 +6414,65 @@
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="71">
+      <c r="A71" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="62">
         <f>SUM(ROUND(B72+B73+B74,2))</f>
         <v>0</v>
       </c>
-      <c r="C71" s="71">
+      <c r="C71" s="62">
         <f t="shared" ref="C71:M71" si="8">SUM(ROUND(C72+C73+C74,2))</f>
         <v>0</v>
       </c>
-      <c r="D71" s="71">
+      <c r="D71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E71" s="71">
+      <c r="E71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F71" s="71">
+      <c r="F71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G71" s="71">
+      <c r="G71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H71" s="71">
+      <c r="H71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I71" s="71">
+      <c r="I71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J71" s="71">
+      <c r="J71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K71" s="71">
+      <c r="K71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L71" s="71">
+      <c r="L71" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M71" s="111">
+      <c r="M71" s="98">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="91"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
+      <c r="A72" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="82"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -7749,12 +6484,12 @@
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" s="91"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
+      <c r="A73" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="82"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -7766,12 +6501,12 @@
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="B74" s="91"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
+      <c r="A74" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="82"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -7783,10 +6518,10 @@
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
       <c r="E75" s="6"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -7798,12 +6533,12 @@
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
+      <c r="A76" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="82"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -7815,12 +6550,12 @@
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="6"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -7832,12 +6567,12 @@
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="91"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
+      <c r="A78" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="82"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -7849,10 +6584,10 @@
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="90"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -7864,63 +6599,63 @@
       <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" s="93">
+      <c r="A80" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="84">
         <f>SUM(ROUND(B60+B62+B76+B78,2))</f>
         <v>0</v>
       </c>
-      <c r="C80" s="93">
+      <c r="C80" s="84">
         <f t="shared" ref="C80:M80" si="9">SUM(ROUND(C60+C62+C76+C78,2))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="93">
+      <c r="D80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E80" s="93">
+      <c r="E80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F80" s="93">
+      <c r="F80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G80" s="93">
+      <c r="G80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H80" s="93">
+      <c r="H80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I80" s="93">
+      <c r="I80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J80" s="93">
+      <c r="J80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K80" s="93">
+      <c r="K80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L80" s="93">
+      <c r="L80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M80" s="93">
+      <c r="M80" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -7932,65 +6667,65 @@
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="B82" s="93">
+      <c r="A82" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="84">
         <f t="shared" ref="B82:M82" si="10">ROUND(B83+B84+B85+B86+B87,2)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="93">
+      <c r="C82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D82" s="93">
+      <c r="D82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E82" s="93">
+      <c r="E82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F82" s="93">
+      <c r="F82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G82" s="93">
+      <c r="G82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H82" s="93">
+      <c r="H82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I82" s="93">
+      <c r="I82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J82" s="93">
+      <c r="J82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K82" s="93">
+      <c r="K82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L82" s="93">
+      <c r="L82" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M82" s="110">
+      <c r="M82" s="97">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
+      <c r="A83" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="82"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -8002,12 +6737,12 @@
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="91"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
+      <c r="A84" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="82"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -8019,12 +6754,12 @@
       <c r="M84" s="4"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="91"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
+      <c r="A85" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="82"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -8036,12 +6771,12 @@
       <c r="M85" s="4"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" s="91"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
+      <c r="A86" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="82"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -8053,12 +6788,12 @@
       <c r="M86" s="4"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="91"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
+      <c r="A87" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="82"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -8070,10 +6805,10 @@
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="99"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="91"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
       <c r="E88" s="6"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -8085,63 +6820,63 @@
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="93">
+      <c r="A89" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="84">
         <f>SUM(ROUND(B43+B56+B80+B82,2))</f>
         <v>0</v>
       </c>
-      <c r="C89" s="93">
+      <c r="C89" s="84">
         <f t="shared" ref="C89:M89" si="11">SUM(ROUND(C43+C56+C80+C82,2))</f>
         <v>0</v>
       </c>
-      <c r="D89" s="93">
+      <c r="D89" s="84">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E89" s="93">
+      <c r="E89" s="84">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F89" s="93">
+      <c r="F89" s="84" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="G89" s="84" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="H89" s="84" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="I89" s="84" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="J89" s="84" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="K89" s="84" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="L89" s="84" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="93">
+        <v>#REF!</v>
+      </c>
+      <c r="M89" s="84" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
+      <c r="A90" s="81"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -8153,63 +6888,63 @@
       <c r="M90" s="4"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" s="93">
+      <c r="A91" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="84">
         <f>ROUND(Liabilities!B85-Liabilities!B75-Asset!B82,2)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="93">
+      <c r="C91" s="84">
         <f>ROUND(Liabilities!C85-Liabilities!C75-Asset!C82,2)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="93">
+      <c r="D91" s="84">
         <f>ROUND(Liabilities!D85-Liabilities!D75-Asset!D82,2)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="93">
+      <c r="E91" s="84">
         <f>ROUND(Liabilities!E85-Liabilities!E75-Asset!E82,2)</f>
         <v>0</v>
       </c>
-      <c r="F91" s="93">
+      <c r="F91" s="84">
         <f>ROUND(Liabilities!F85-Liabilities!F75-Asset!F82,2)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="93">
+      <c r="G91" s="84">
         <f>ROUND(Liabilities!G85-Liabilities!G75-Asset!G82,2)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="93">
+      <c r="H91" s="84">
         <f>ROUND(Liabilities!H85-Liabilities!H75-Asset!H82,2)</f>
         <v>0</v>
       </c>
-      <c r="I91" s="93">
+      <c r="I91" s="84">
         <f>ROUND(Liabilities!I85-Liabilities!I75-Asset!I82,2)</f>
         <v>0</v>
       </c>
-      <c r="J91" s="93">
+      <c r="J91" s="84">
         <f>ROUND(Liabilities!J85-Liabilities!J75-Asset!J82,2)</f>
         <v>0</v>
       </c>
-      <c r="K91" s="93">
+      <c r="K91" s="84">
         <f>ROUND(Liabilities!K85-Liabilities!K75-Asset!K82,2)</f>
         <v>0</v>
       </c>
-      <c r="L91" s="93">
+      <c r="L91" s="84">
         <f>ROUND(Liabilities!L85-Liabilities!L75-Asset!L82,2)</f>
         <v>0</v>
       </c>
-      <c r="M91" s="110">
+      <c r="M91" s="97">
         <f>ROUND(Liabilities!M85-Liabilities!M75-Asset!M82,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
+      <c r="A92" s="81"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -8221,63 +6956,63 @@
       <c r="M92" s="4"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="93">
+      <c r="A93" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="84">
         <f>SUM(ROUND(Liabilities!B55+Liabilities!B85,2))-(ROUND(B56+B80+B82,2))</f>
         <v>0</v>
       </c>
-      <c r="C93" s="93">
+      <c r="C93" s="84">
         <f>SUM(ROUND(Liabilities!C55+Liabilities!C85,2))-(ROUND(C56+C80+C82,2))</f>
         <v>0</v>
       </c>
-      <c r="D93" s="93">
+      <c r="D93" s="84">
         <f>SUM(ROUND(Liabilities!D55+Liabilities!D85,2))-(ROUND(D56+D80+D82,2))</f>
         <v>0</v>
       </c>
-      <c r="E93" s="93">
+      <c r="E93" s="84">
         <f>SUM(ROUND(Liabilities!E55+Liabilities!E85,2))-(ROUND(E56+E80+E82,2))</f>
         <v>0</v>
       </c>
-      <c r="F93" s="93">
+      <c r="F93" s="84">
         <f>SUM(ROUND(Liabilities!F55+Liabilities!F85,2))-(ROUND(F56+F80+F82,2))</f>
         <v>0</v>
       </c>
-      <c r="G93" s="93">
+      <c r="G93" s="84">
         <f>SUM(ROUND(Liabilities!G55+Liabilities!G85,2))-(ROUND(G56+G80+G82,2))</f>
         <v>0</v>
       </c>
-      <c r="H93" s="93">
+      <c r="H93" s="84">
         <f>SUM(ROUND(Liabilities!H55+Liabilities!H85,2))-(ROUND(H56+H80+H82,2))</f>
         <v>0</v>
       </c>
-      <c r="I93" s="93">
+      <c r="I93" s="84">
         <f>SUM(ROUND(Liabilities!I55+Liabilities!I85,2))-(ROUND(I56+I80+I82,2))</f>
         <v>0</v>
       </c>
-      <c r="J93" s="93">
+      <c r="J93" s="84">
         <f>SUM(ROUND(Liabilities!J55+Liabilities!J85,2))-(ROUND(J56+J80+J82,2))</f>
         <v>0</v>
       </c>
-      <c r="K93" s="93">
+      <c r="K93" s="84">
         <f>SUM(ROUND(Liabilities!K55+Liabilities!K85,2))-(ROUND(K56+K80+K82,2))</f>
         <v>0</v>
       </c>
-      <c r="L93" s="93">
+      <c r="L93" s="84">
         <f>SUM(ROUND(Liabilities!L55+Liabilities!L85,2))-(ROUND(L56+L80+L82,2))</f>
         <v>0</v>
       </c>
-      <c r="M93" s="110">
+      <c r="M93" s="97">
         <f>SUM(ROUND(Liabilities!M55+Liabilities!M85,2))-(ROUND(M56+M80+M82,2))</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
+      <c r="A94" s="81"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -8289,63 +7024,63 @@
       <c r="M94" s="4"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="B95" s="93">
+      <c r="A95" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="84">
         <f>IF(Liabilities!B37=0,0,(ROUND(B43/Liabilities!B37,2)))</f>
         <v>0</v>
       </c>
-      <c r="C95" s="93">
+      <c r="C95" s="84">
         <f>IF(Liabilities!C37=0,0,(ROUND(C43/Liabilities!C37,2)))</f>
         <v>0</v>
       </c>
-      <c r="D95" s="93">
+      <c r="D95" s="84">
         <f>IF(Liabilities!D37=0,0,(ROUND(D43/Liabilities!D37,2)))</f>
         <v>0</v>
       </c>
-      <c r="E95" s="93">
+      <c r="E95" s="84">
         <f>IF(Liabilities!E37=0,0,(ROUND(E43/Liabilities!E37,2)))</f>
         <v>0</v>
       </c>
-      <c r="F95" s="93">
+      <c r="F95" s="84">
         <f>IF(Liabilities!F37=0,0,(ROUND(F43/Liabilities!F37,2)))</f>
         <v>0</v>
       </c>
-      <c r="G95" s="93">
+      <c r="G95" s="84">
         <f>IF(Liabilities!G37=0,0,(ROUND(G43/Liabilities!G37,2)))</f>
         <v>0</v>
       </c>
-      <c r="H95" s="93">
+      <c r="H95" s="84">
         <f>IF(Liabilities!H37=0,0,(ROUND(H43/Liabilities!H37,2)))</f>
         <v>0</v>
       </c>
-      <c r="I95" s="93">
+      <c r="I95" s="84">
         <f>IF(Liabilities!I37=0,0,(ROUND(I43/Liabilities!I37,2)))</f>
         <v>0</v>
       </c>
-      <c r="J95" s="93">
+      <c r="J95" s="84">
         <f>IF(Liabilities!J37=0,0,(ROUND(J43/Liabilities!J37,2)))</f>
         <v>0</v>
       </c>
-      <c r="K95" s="93">
+      <c r="K95" s="84">
         <f>IF(Liabilities!K37=0,0,(ROUND(K43/Liabilities!K37,2)))</f>
         <v>0</v>
       </c>
-      <c r="L95" s="93">
+      <c r="L95" s="84">
         <f>IF(Liabilities!L37=0,0,(ROUND(L43/Liabilities!L37,2)))</f>
         <v>0</v>
       </c>
-      <c r="M95" s="110">
+      <c r="M95" s="97">
         <f>IF(Liabilities!M37=0,0,(ROUND(M43/Liabilities!M37,2)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
+      <c r="A96" s="81"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -8357,63 +7092,63 @@
       <c r="M96" s="4"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="B97" s="93">
+      <c r="A97" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="84">
         <f>IF(B91=0,0,(ROUND(Liabilities!B63/B91,2)))</f>
         <v>0</v>
       </c>
-      <c r="C97" s="93">
+      <c r="C97" s="84">
         <f>IF(C91=0,0,(ROUND(Liabilities!C63/C91,2)))</f>
         <v>0</v>
       </c>
-      <c r="D97" s="93">
+      <c r="D97" s="84">
         <f>IF(D91=0,0,(ROUND(Liabilities!D63/D91,2)))</f>
         <v>0</v>
       </c>
-      <c r="E97" s="93">
+      <c r="E97" s="84">
         <f>IF(E91=0,0,(ROUND(Liabilities!E63/E91,2)))</f>
         <v>0</v>
       </c>
-      <c r="F97" s="93">
+      <c r="F97" s="84">
         <f>IF(F91=0,0,(ROUND(Liabilities!F63/F91,2)))</f>
         <v>0</v>
       </c>
-      <c r="G97" s="93">
+      <c r="G97" s="84">
         <f>IF(G91=0,0,(ROUND(Liabilities!G63/G91,2)))</f>
         <v>0</v>
       </c>
-      <c r="H97" s="93">
+      <c r="H97" s="84">
         <f>IF(H91=0,0,(ROUND(Liabilities!H63/H91,2)))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="93">
+      <c r="I97" s="84">
         <f>IF(I91=0,0,(ROUND(Liabilities!I63/I91,2)))</f>
         <v>0</v>
       </c>
-      <c r="J97" s="93">
+      <c r="J97" s="84">
         <f>IF(J91=0,0,(ROUND(Liabilities!J63/J91,2)))</f>
         <v>0</v>
       </c>
-      <c r="K97" s="93">
+      <c r="K97" s="84">
         <f>IF(K91=0,0,(ROUND(Liabilities!K63/K91,2)))</f>
         <v>0</v>
       </c>
-      <c r="L97" s="93">
+      <c r="L97" s="84">
         <f>IF(L91=0,0,(ROUND(Liabilities!L63/L91,2)))</f>
         <v>0</v>
       </c>
-      <c r="M97" s="110">
+      <c r="M97" s="97">
         <f>IF(M91=0,0,(ROUND(Liabilities!M63/M91,2)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
+      <c r="A98" s="81"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -8425,62 +7160,61 @@
       <c r="M98" s="4"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" s="101">
+      <c r="A99" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="92">
         <f>IF(B91=0,0,(ROUND(Liabilities!B55/B91,2)))</f>
         <v>0</v>
       </c>
-      <c r="C99" s="101">
+      <c r="C99" s="92">
         <f>IF(C91=0,0,(ROUND(Liabilities!C55/C91,2)))</f>
         <v>0</v>
       </c>
-      <c r="D99" s="101">
+      <c r="D99" s="92">
         <f>IF(D91=0,0,(ROUND(Liabilities!D55/D91,2)))</f>
         <v>0</v>
       </c>
-      <c r="E99" s="101">
+      <c r="E99" s="92">
         <f>IF(E91=0,0,(ROUND(Liabilities!E55/E91,2)))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="101">
+      <c r="F99" s="92">
         <f>IF(F91=0,0,(ROUND(Liabilities!F55/F91,2)))</f>
         <v>0</v>
       </c>
-      <c r="G99" s="101">
+      <c r="G99" s="92">
         <f>IF(G91=0,0,(ROUND(Liabilities!G55/G91,2)))</f>
         <v>0</v>
       </c>
-      <c r="H99" s="101">
+      <c r="H99" s="92">
         <f>IF(H91=0,0,(ROUND(Liabilities!H55/H91,2)))</f>
         <v>0</v>
       </c>
-      <c r="I99" s="101">
+      <c r="I99" s="92">
         <f>IF(I91=0,0,(ROUND(Liabilities!I55/I91,2)))</f>
         <v>0</v>
       </c>
-      <c r="J99" s="101">
+      <c r="J99" s="92">
         <f>IF(J91=0,0,(ROUND(Liabilities!J55/J91,2)))</f>
         <v>0</v>
       </c>
-      <c r="K99" s="101">
+      <c r="K99" s="92">
         <f>IF(K91=0,0,(ROUND(Liabilities!K55/K91,2)))</f>
         <v>0</v>
       </c>
-      <c r="L99" s="101">
+      <c r="L99" s="92">
         <f>IF(L91=0,0,(ROUND(Liabilities!L55/L91,2)))</f>
         <v>0</v>
       </c>
-      <c r="M99" s="112">
+      <c r="M99" s="99">
         <f>IF(M91=0,0,(ROUND(Liabilities!M55/M91,2)))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AjL5mar7wgLPvac6BlJB0XUYC6V5Eqnr3Hb6j84Cb16ksyH4cZ7g1s3iYJ6TJbhMjjIE/eWDZ+odLkYp05QBhg==" saltValue="p3uk3iD0ptTlDDUKr/O9yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rHFnn36dDXVsjiSgK8V7A0sh5cIHrtuty/phCDBmp5QeYFfHehd+M2RumDAvPsSYihnV3DBianORAQokAFfAbw==" saltValue="PuqpZdmDzQ05Ip9IdfgtvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -8497,6 +7231,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
@@ -654,10 +654,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1216,9 +1216,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1258,7 +1258,7 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1445,10 +1445,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1482,6 +1482,18 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1493,12 +1505,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1517,12 +1523,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1849,7 +1849,7 @@
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1857,10 +1857,10 @@
     <col min="1" max="1" width="51.85546875" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="5" width="17.7109375" style="20" customWidth="1" collapsed="1"/>
     <col min="6" max="7" width="7.5703125" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.140625" style="20" hidden="1" collapsed="1"/>
-    <col min="11" max="13" width="0" style="20" hidden="1"/>
-    <col min="14" max="15" width="7.5703125" style="20" hidden="1"/>
-    <col min="16" max="18" width="9.140625" style="20" hidden="1"/>
+    <col min="8" max="10" width="9.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="7.5703125" style="20" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="20" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="20" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2881,24 +2881,18 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="43hQJQ+uaU5zsIuQWkFeNt1MC3H/E52Oed7WULemk8PhVtBGrj63ZqPzuUuwmyB8gNBCzUnzN3YbF7wFQ30QXw==" saltValue="8pvodnTfFe6Iqa2tKAL2SQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CpAPyf8NidhQkA/BL47gJy5l1CTP+p/BpDHjnHiK3JmkxZFbSR1gvjWBtoL7ZFJHSx3sjM+cO2LRHIOBYOLojQ==" saltValue="DWGuAkpal+NwIBjnqqatsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:C4"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:E16 B18:E81">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:E86 B17:E17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>$F$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>$F$1:$J$1</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2927,13 +2921,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="42"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -2954,13 +2948,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -2971,13 +2965,13 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
       <c r="H3" s="48"/>
@@ -2988,11 +2982,11 @@
       <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="21" t="s">
         <v>40</v>
       </c>
@@ -3015,7 +3009,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="30">
@@ -3068,70 +3062,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109" t="str">
+      <c r="A6" s="112"/>
+      <c r="B6" s="107" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="109" t="str">
+      <c r="C6" s="107" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="109" t="str">
+      <c r="D6" s="107" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="109" t="str">
+      <c r="E6" s="107" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="109" t="e">
+      <c r="F6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="109" t="e">
+      <c r="G6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="109" t="e">
+      <c r="H6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="109" t="e">
+      <c r="I6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="109" t="e">
+      <c r="J6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="109" t="e">
+      <c r="K6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="109" t="e">
+      <c r="L6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="116" t="e">
+      <c r="M6" s="105" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="117"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
@@ -3577,7 +3571,7 @@
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="57"/>
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
@@ -3592,7 +3586,7 @@
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
+      <c r="A34" s="110"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
@@ -4754,14 +4748,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Fmj0YJ21lQXt9wjgpuGV85vU6k5CC2HVpsj3RzdzaGabq4QO99/nBoyYvjjxeXfxe6mcbqf7YNaypxkcHprMuA==" saltValue="IsolDYy4cpDOrYQdLdHN3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:E1"/>
@@ -4772,6 +4758,14 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
@@ -4814,13 +4808,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -4841,13 +4835,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -4858,13 +4852,13 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
       <c r="H3" s="48"/>
@@ -4875,11 +4869,11 @@
       <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="21" t="s">
         <v>40</v>
       </c>
@@ -4956,68 +4950,68 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="120"/>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="107" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="109" t="str">
+      <c r="C6" s="107" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="109" t="str">
+      <c r="D6" s="107" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="109" t="str">
+      <c r="E6" s="107" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="109" t="e">
+      <c r="F6" s="107" t="e">
         <f>Liabilities!F6</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="109" t="e">
+      <c r="G6" s="107" t="e">
         <f>Liabilities!G6</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="109" t="e">
+      <c r="H6" s="107" t="e">
         <f>Liabilities!H6</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="109" t="e">
+      <c r="I6" s="107" t="e">
         <f>Liabilities!I6</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="109" t="e">
+      <c r="J6" s="107" t="e">
         <f>Liabilities!J6</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="109" t="e">
+      <c r="K6" s="107" t="e">
         <f>Liabilities!K6</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="109" t="e">
+      <c r="L6" s="107" t="e">
         <f>Liabilities!L6</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="116" t="e">
+      <c r="M6" s="105" t="e">
         <f>Liabilities!M6</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="120"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="118"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -7215,6 +7209,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rHFnn36dDXVsjiSgK8V7A0sh5cIHrtuty/phCDBmp5QeYFfHehd+M2RumDAvPsSYihnV3DBianORAQokAFfAbw==" saltValue="PuqpZdmDzQ05Ip9IdfgtvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -7231,7 +7226,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -1,124 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
     <sheet name="Liabilities" sheetId="3" r:id="rId2"/>
     <sheet name="Asset" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CapitaWorld:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Select the denomination which you have already selected while filling one form.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CapitaWorld:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Select the denomination which you have already selected while filling one form.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CapitaWorld:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Select the denomination which you have already selected while filling one form.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,7 +554,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,19 +596,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1217,15 +1099,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1239,25 +1117,25 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,10 +1158,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1300,40 +1175,40 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1482,18 +1357,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1522,16 +1385,34 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1598,7 +1479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1633,7 +1514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1841,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1849,1039 +1730,1039 @@
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="17.7109375" style="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="7.5703125" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="0" style="20" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="7.5703125" style="20" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="20" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="20" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="51.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="7.5703125" style="19" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="9.140625" style="19" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="7.5703125" style="19" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="19" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="19" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="20" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="120" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="30">
+      <c r="A5" s="22"/>
+      <c r="B5" s="28">
         <v>2015</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <f>B5+1</f>
         <v>2016</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <f>C5+1</f>
         <v>2017</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <f>D5+1</f>
         <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <f>SUM(ROUND(B8+B9+B10,2))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="31">
         <f t="shared" ref="C11:E11" si="0">SUM(ROUND(C8+C9+C10,2))</f>
         <v>0</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <f t="shared" ref="B15:E15" si="1">IF(B11=0,0,SUM(ROUND((B11)-(B13+B14),2)))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="35">
+      <c r="B17" s="31"/>
+      <c r="C17" s="33">
         <f t="shared" ref="C17:E17" si="2">IFERROR(((C15-B15)/B15),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <f t="shared" ref="B20:E20" si="3">B21+B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="31">
         <f t="shared" ref="B24:E24" si="4">B25+B26</f>
         <v>0</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="11"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="7"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="7"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="31">
         <f t="shared" ref="B36:E36" si="5">SUM(ROUND(B20+B24+B28+B30+B32+B34,2))</f>
         <v>0</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="11"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="7"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="35">
         <f t="shared" ref="B40:E40" si="6">SUM(ROUND(B36+B38,2))</f>
         <v>0</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="38">
         <f>B40-B42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="38">
         <f t="shared" ref="C44:E44" si="7">C40-C42</f>
         <v>0</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="9"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="10"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="9"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="38">
         <f t="shared" ref="B48:E48" si="8">(ROUND(B44+B46,2))</f>
         <v>0</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="9"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="10"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="38">
         <f t="shared" ref="B52:E52" si="9">(ROUND(B48-B50,2))</f>
         <v>0</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="11"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="10"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="11"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="40">
+      <c r="B58" s="38">
         <f>(ROUND(B52+B56+B54,2))</f>
         <v>0</v>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="38">
         <f t="shared" ref="C58:E58" si="10">(ROUND(C52+C56+C54,2))</f>
         <v>0</v>
       </c>
-      <c r="D58" s="40">
+      <c r="D58" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="40">
+      <c r="B60" s="38">
         <f t="shared" ref="B60:E60" si="11">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
         <v>0</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D60" s="40">
+      <c r="D60" s="38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E60" s="40">
+      <c r="E60" s="38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="11"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B64" s="38">
         <f t="shared" ref="B64:E64" si="12">(ROUND(B60-B62,2))</f>
         <v>0</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="38">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D64" s="38">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="38">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="9"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="38">
         <f t="shared" ref="B67:E67" si="13">B66</f>
         <v>0</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="38">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="38">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="38">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="10"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="38">
         <f t="shared" ref="B69:E69" si="14">B68</f>
         <v>0</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="38">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="38">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="38">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="40">
+      <c r="B70" s="38">
         <f t="shared" ref="B70:E70" si="15">SUM(ROUND(B67-B69,2))</f>
         <v>0</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="38">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="38">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="38">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="10"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="9"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="40">
+      <c r="B73" s="38">
         <f t="shared" ref="B73:E73" si="16">SUM(ROUND(B64+B70-B71,2))</f>
         <v>0</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="9"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="9"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="str">
+      <c r="A78" s="24" t="str">
         <f>IF(A79="15. Profit After Tax [for the year]","","15. Net Profit/loss [13-14]")</f>
         <v>15. Net Profit/loss [13-14]</v>
       </c>
-      <c r="B78" s="40">
+      <c r="B78" s="38">
         <f>B73-B75-B77</f>
         <v>0</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="38">
         <f>IF(B78="","",SUM((ROUND(C73-(C77+C75),2))))</f>
         <v>0</v>
       </c>
-      <c r="D78" s="40">
+      <c r="D78" s="38">
         <f>IF(A78="","",SUM((ROUND(D73-(D77+D75),2))))</f>
         <v>0</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="38">
         <f>IF(A78="","",SUM((ROUND(E73-(E77+E75),2))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="str">
+      <c r="A79" s="25" t="str">
         <f>IF(OR(B76&gt;0,C76&gt;0,D76&gt;0,E76&gt;0),"14. Profit After Tax [for the year]","")</f>
         <v/>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="9"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="9"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="9"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="40">
+      <c r="A82" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="38">
         <f>IFERROR((B80/Liabilities!B67),0)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="38">
         <f>IFERROR((C80/Liabilities!C67),0)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="40">
+      <c r="D82" s="38">
         <f>IFERROR((D80/Liabilities!D67),0)</f>
         <v>0</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="38">
         <f>IFERROR((E80/Liabilities!E67),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="9"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="40">
+      <c r="B84" s="38">
         <f t="shared" ref="B84:E84" si="17">B78-B80</f>
         <v>0</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="9"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="41">
+      <c r="B86" s="39">
         <f t="shared" ref="B86:E86" si="18">IFERROR((B84/B78),0)</f>
         <v>0</v>
       </c>
-      <c r="C86" s="41">
+      <c r="C86" s="39">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="D86" s="41">
+      <c r="D86" s="39">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E86" s="41">
+      <c r="E86" s="39">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CpAPyf8NidhQkA/BL47gJy5l1CTP+p/BpDHjnHiK3JmkxZFbSR1gvjWBtoL7ZFJHSx3sjM+cO2LRHIOBYOLojQ==" saltValue="DWGuAkpal+NwIBjnqqatsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -2896,12 +2777,11 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2909,1845 +2789,1853 @@
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="17.7109375" style="47" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="17.7109375" style="47" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="47" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="46.7109375" style="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.7109375" style="45" customWidth="1" collapsed="1"/>
+    <col min="6" max="13" width="17.7109375" style="45" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="45" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50" t="e">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="50" t="e">
+      <c r="M4" s="48" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <f>'Operating Stmt.'!B5</f>
         <v>2015</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <f>'Operating Stmt.'!C5</f>
         <v>2016</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <f>'Operating Stmt.'!D5</f>
         <v>2017</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="28">
         <f>'Operating Stmt.'!E5</f>
         <v>2018</v>
       </c>
-      <c r="F5" s="30" t="e">
+      <c r="F5" s="28" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="30" t="e">
+      <c r="G5" s="28" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="30" t="e">
+      <c r="H5" s="28" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I5" s="30" t="e">
+      <c r="I5" s="28" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J5" s="30" t="e">
+      <c r="J5" s="28" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K5" s="30" t="e">
+      <c r="K5" s="28" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L5" s="30" t="e">
+      <c r="L5" s="28" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M5" s="93" t="e">
+      <c r="M5" s="91" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="107" t="str">
+      <c r="A6" s="106"/>
+      <c r="B6" s="111" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="107" t="str">
+      <c r="C6" s="111" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="107" t="str">
+      <c r="D6" s="111" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="107" t="str">
+      <c r="E6" s="111" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="107" t="e">
+      <c r="F6" s="111" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="107" t="e">
+      <c r="G6" s="111" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="107" t="e">
+      <c r="H6" s="111" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="107" t="e">
+      <c r="I6" s="111" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="107" t="e">
+      <c r="J6" s="111" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="107" t="e">
+      <c r="K6" s="111" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="107" t="e">
+      <c r="L6" s="111" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="105" t="e">
+      <c r="M6" s="113" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="106"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="114"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="57">
         <f>SUM(ROUND(B11+B12,2))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="57">
         <f>SUM(ROUND(C11+C12,2))</f>
         <v>0</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="57">
         <f t="shared" ref="D15:M15" si="0">SUM(ROUND(D11+D12,2))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="94">
+      <c r="M15" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="16"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="57">
         <f t="shared" ref="B35:M35" si="1">SUM(ROUND(B17+B19+B21+B23+B25+B27+B29+B32,2))</f>
         <v>0</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="59">
+      <c r="I35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="59">
+      <c r="J35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K35" s="59">
+      <c r="K35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="94">
+      <c r="M35" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="59">
+      <c r="B37" s="57">
         <f t="shared" ref="B37:M37" si="2">SUM(ROUND(B15+B35,2))</f>
         <v>0</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E37" s="59">
+      <c r="E37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="59">
+      <c r="I37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="59">
+      <c r="J37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K37" s="59">
+      <c r="K37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M37" s="94">
+      <c r="M37" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="52"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="4"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="4"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="4"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="4"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="4"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="4"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="58">
+      <c r="B45" s="56">
         <f>SUM(ROUND(B46+B47,2))</f>
         <v>0</v>
       </c>
-      <c r="C45" s="58">
+      <c r="C45" s="56">
         <f t="shared" ref="C45:M45" si="3">SUM(ROUND(C46+C47,2))</f>
         <v>0</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G45" s="58">
+      <c r="G45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H45" s="58">
+      <c r="H45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I45" s="58">
+      <c r="I45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J45" s="58">
+      <c r="J45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K45" s="58">
+      <c r="K45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L45" s="58">
+      <c r="L45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M45" s="58">
+      <c r="M45" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="4"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="4"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="4"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="4"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="4"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="16"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="15"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="4"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="4"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="59">
+      <c r="B55" s="57">
         <f t="shared" ref="B55:M55" si="4">SUM(ROUND(B41+B43+B45+B49+B51+B53,2))</f>
         <v>0</v>
       </c>
-      <c r="C55" s="59">
+      <c r="C55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D55" s="59">
+      <c r="D55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E55" s="59">
+      <c r="E55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F55" s="59">
+      <c r="F55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G55" s="59">
+      <c r="G55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H55" s="59">
+      <c r="H55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I55" s="59">
+      <c r="I55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J55" s="59">
+      <c r="J55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K55" s="59">
+      <c r="K55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L55" s="59">
+      <c r="L55" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M55" s="94">
+      <c r="M55" s="92">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="18"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="17"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B57" s="56">
         <f>SUM(ROUND(B58+B59+B60+B61,2))</f>
         <v>0</v>
       </c>
-      <c r="C57" s="58">
+      <c r="C57" s="56">
         <f t="shared" ref="C57:M57" si="5">SUM(ROUND(C58+C59+C60+C61,2))</f>
         <v>0</v>
       </c>
-      <c r="D57" s="58">
+      <c r="D57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G57" s="58">
+      <c r="G57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H57" s="58">
+      <c r="H57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I57" s="58">
+      <c r="I57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J57" s="58">
+      <c r="J57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K57" s="58">
+      <c r="K57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L57" s="58">
+      <c r="L57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M57" s="58">
+      <c r="M57" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="18"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="17"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="18"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="17"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="18"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="17"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="18"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="17"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="4"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="59">
+      <c r="B63" s="57">
         <f t="shared" ref="B63:M63" si="6">SUM(ROUND(B37+B55+B57,2))</f>
         <v>0</v>
       </c>
-      <c r="C63" s="59">
+      <c r="C63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D63" s="59">
+      <c r="D63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E63" s="59">
+      <c r="E63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F63" s="59">
+      <c r="F63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G63" s="59">
+      <c r="G63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H63" s="59">
+      <c r="H63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I63" s="59">
+      <c r="I63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J63" s="59">
+      <c r="J63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K63" s="59">
+      <c r="K63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L63" s="59">
+      <c r="L63" s="57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M63" s="94">
+      <c r="M63" s="92">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="4"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="4"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="4"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="4"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="4"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="4"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="4"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="4"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="4"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="4"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="4"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="4"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="4"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="4"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="4"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="4"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="4"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="3"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="4"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="4"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="4"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="4"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="59">
+      <c r="B85" s="57">
         <f>SUM(ROUND(B67+B69+B71+B73+B75+B77+B79+B81+B83,2))</f>
         <v>0</v>
       </c>
-      <c r="C85" s="59">
+      <c r="C85" s="57">
         <f t="shared" ref="C85:M85" si="7">SUM(ROUND(C67+C69+C71+C73+C75+C77+C79+C81+C83,2))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="59">
+      <c r="D85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E85" s="59">
+      <c r="E85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F85" s="59">
+      <c r="F85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G85" s="59">
+      <c r="G85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H85" s="59">
+      <c r="H85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I85" s="59">
+      <c r="I85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J85" s="59">
+      <c r="J85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K85" s="59">
+      <c r="K85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L85" s="59">
+      <c r="L85" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M85" s="94">
+      <c r="M85" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="4"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="73">
+      <c r="B87" s="71">
         <f>SUM(ROUND(B63+B85,2))</f>
         <v>0</v>
       </c>
-      <c r="C87" s="73">
+      <c r="C87" s="71">
         <f t="shared" ref="C87:M87" si="8">SUM(ROUND(C63+C85,2))</f>
         <v>0</v>
       </c>
-      <c r="D87" s="73">
+      <c r="D87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E87" s="73">
+      <c r="E87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F87" s="73">
+      <c r="F87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G87" s="73">
+      <c r="G87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H87" s="73">
+      <c r="H87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I87" s="73">
+      <c r="I87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J87" s="73">
+      <c r="J87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K87" s="73">
+      <c r="K87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L87" s="73">
+      <c r="L87" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M87" s="95">
+      <c r="M87" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Fmj0YJ21lQXt9wjgpuGV85vU6k5CC2HVpsj3RzdzaGabq4QO99/nBoyYvjjxeXfxe6mcbqf7YNaypxkcHprMuA==" saltValue="IsolDYy4cpDOrYQdLdHN3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:E1"/>
@@ -4758,37 +4646,22 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:M81">
       <formula1>1E+35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>$I$1:$M$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>$N$2</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4796,2424 +4669,2419 @@
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="76" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="17.7109375" style="47" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="17.7109375" style="47" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="0" style="47" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="45.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.7109375" style="45" customWidth="1" collapsed="1"/>
+    <col min="6" max="13" width="17.7109375" style="45" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="0" style="45" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50" t="e">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="50" t="e">
+      <c r="M4" s="48" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="75">
         <f>'Operating Stmt.'!B5</f>
         <v>2015</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="75">
         <f>'Operating Stmt.'!C5</f>
         <v>2016</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="75">
         <f>'Operating Stmt.'!D5</f>
         <v>2017</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="75">
         <f>'Operating Stmt.'!E5</f>
         <v>2018</v>
       </c>
-      <c r="F5" s="77" t="e">
+      <c r="F5" s="75" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="77" t="e">
+      <c r="G5" s="75" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="77" t="e">
+      <c r="H5" s="75" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I5" s="77" t="e">
+      <c r="I5" s="75" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J5" s="77" t="e">
+      <c r="J5" s="75" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K5" s="77" t="e">
+      <c r="K5" s="75" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L5" s="77" t="e">
+      <c r="L5" s="75" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M5" s="96" t="e">
+      <c r="M5" s="94" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="107" t="str">
+      <c r="A6" s="118"/>
+      <c r="B6" s="111" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="107" t="str">
+      <c r="C6" s="111" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="107" t="str">
+      <c r="D6" s="111" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="107" t="str">
+      <c r="E6" s="111" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="107" t="e">
+      <c r="F6" s="111" t="e">
         <f>Liabilities!F6</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="107" t="e">
+      <c r="G6" s="111" t="e">
         <f>Liabilities!G6</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="107" t="e">
+      <c r="H6" s="111" t="e">
         <f>Liabilities!H6</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="107" t="e">
+      <c r="I6" s="111" t="e">
         <f>Liabilities!I6</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="107" t="e">
+      <c r="J6" s="111" t="e">
         <f>Liabilities!J6</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="107" t="e">
+      <c r="K6" s="111" t="e">
         <f>Liabilities!K6</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="107" t="e">
+      <c r="L6" s="111" t="e">
         <f>Liabilities!L6</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="105" t="e">
+      <c r="M6" s="113" t="e">
         <f>Liabilities!M6</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="118"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="116"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="82">
         <f t="shared" ref="B11:M11" si="0">SUM(ROUND(B13+B15,2))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="97">
+      <c r="M11" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="82">
         <f t="shared" ref="B22:M22" si="1">SUM(ROUND(B24+B29+B31+B33,2))</f>
         <v>0</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="84" t="e">
+      <c r="F22" s="82" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="G22" s="84" t="e">
+      <c r="G22" s="82" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="H22" s="84" t="e">
+      <c r="H22" s="82" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="I22" s="84" t="e">
+      <c r="I22" s="82" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="J22" s="84" t="e">
+      <c r="J22" s="82" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="K22" s="84" t="e">
+      <c r="K22" s="82" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="L22" s="84" t="e">
+      <c r="L22" s="82" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="97" t="e">
+      <c r="M22" s="95" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="82">
         <f t="shared" ref="B24:M24" si="2">SUM(ROUND(B26+B27,2))</f>
         <v>0</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="94">
+      <c r="M24" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="82">
         <f>'Operating Stmt.'!B42</f>
         <v>0</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="82">
         <f>'Operating Stmt.'!C42</f>
         <v>0</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="82">
         <f>'Operating Stmt.'!D42</f>
         <v>0</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="82">
         <f>'Operating Stmt.'!E42</f>
         <v>0</v>
       </c>
-      <c r="F29" s="84" t="e">
+      <c r="F29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="84" t="e">
+      <c r="G29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="84" t="e">
+      <c r="H29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I29" s="84" t="e">
+      <c r="I29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J29" s="84" t="e">
+      <c r="J29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K29" s="84" t="e">
+      <c r="K29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="84" t="e">
+      <c r="L29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M29" s="97" t="e">
+      <c r="M29" s="95" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="82">
         <f>'Operating Stmt.'!B50</f>
         <v>0</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="82">
         <f>'Operating Stmt.'!C50</f>
         <v>0</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="82">
         <f>'Operating Stmt.'!D50</f>
         <v>0</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="82">
         <f>'Operating Stmt.'!E50</f>
         <v>0</v>
       </c>
-      <c r="F31" s="84" t="e">
+      <c r="F31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="84" t="e">
+      <c r="G31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H31" s="84" t="e">
+      <c r="H31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I31" s="84" t="e">
+      <c r="I31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J31" s="84" t="e">
+      <c r="J31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K31" s="84" t="e">
+      <c r="K31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L31" s="84" t="e">
+      <c r="L31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M31" s="97" t="e">
+      <c r="M31" s="95" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="82">
         <f t="shared" ref="B33:M33" si="3">SUM(ROUND(B34+B35,2))</f>
         <v>0</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="94">
+      <c r="M33" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="4"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="4"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="4"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="4"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="84">
+      <c r="B43" s="82">
         <f t="shared" ref="B43:M43" si="4">SUM(ROUND(B9+B11+B16+B18+B20+B22+B37+B39+B41,2))</f>
         <v>0</v>
       </c>
-      <c r="C43" s="59">
+      <c r="C43" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E43" s="59">
+      <c r="E43" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F43" s="59" t="e">
+      <c r="F43" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="G43" s="59" t="e">
+      <c r="G43" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="H43" s="59" t="e">
+      <c r="H43" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="I43" s="59" t="e">
+      <c r="I43" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="J43" s="59" t="e">
+      <c r="J43" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="59" t="e">
+      <c r="K43" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="L43" s="59" t="e">
+      <c r="L43" s="57" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="M43" s="94" t="e">
+      <c r="M43" s="92" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="4"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="82">
+      <c r="B45" s="80">
         <f>SUM(ROUND(B46+B47+B48+B49+B50,2))</f>
         <v>0</v>
       </c>
-      <c r="C45" s="82">
+      <c r="C45" s="80">
         <f t="shared" ref="C45:M45" si="5">SUM(ROUND(C46+C47+C48+C49+C50,2))</f>
         <v>0</v>
       </c>
-      <c r="D45" s="82">
+      <c r="D45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E45" s="82">
+      <c r="E45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F45" s="82">
+      <c r="F45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G45" s="82">
+      <c r="G45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H45" s="82">
+      <c r="H45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I45" s="82">
+      <c r="I45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J45" s="82">
+      <c r="J45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K45" s="82">
+      <c r="K45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L45" s="82">
+      <c r="L45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M45" s="82">
+      <c r="M45" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="4"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="4"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="4"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="4"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="4"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="4"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="4"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="4"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="82"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="4"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="4"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="82">
         <f>SUM(ROUND(B45-B52-B54,2))</f>
         <v>0</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="82">
         <f t="shared" ref="C56:M56" si="6">SUM(ROUND(C45-C52-C54,2))</f>
         <v>0</v>
       </c>
-      <c r="D56" s="84">
+      <c r="D56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E56" s="84">
+      <c r="E56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F56" s="84">
+      <c r="F56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G56" s="84">
+      <c r="G56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H56" s="84">
+      <c r="H56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I56" s="84">
+      <c r="I56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J56" s="84">
+      <c r="J56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K56" s="84">
+      <c r="K56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L56" s="84">
+      <c r="L56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M56" s="84">
+      <c r="M56" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="81"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="4"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="4"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="4"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="82"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="4"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="4"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="84">
+      <c r="B62" s="82">
         <f>B64+B65+B67+B69+B71</f>
         <v>0</v>
       </c>
-      <c r="C62" s="59">
+      <c r="C62" s="57">
         <f t="shared" ref="C62:M62" si="7">SUM(ROUND(C64+C65+C67+C69+C71,2))</f>
         <v>0</v>
       </c>
-      <c r="D62" s="59">
+      <c r="D62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E62" s="59">
+      <c r="E62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F62" s="59">
+      <c r="F62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G62" s="59">
+      <c r="G62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H62" s="59">
+      <c r="H62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I62" s="59">
+      <c r="I62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J62" s="59">
+      <c r="J62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K62" s="59">
+      <c r="K62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L62" s="59">
+      <c r="L62" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M62" s="94">
+      <c r="M62" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="81" t="s">
+      <c r="A63" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="82"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="4"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="82"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="4"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="82"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="4"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="81"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="4"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="82"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="4"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="81" t="s">
+      <c r="A68" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="4"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="82"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="4"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="81" t="s">
+      <c r="A70" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="4"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="62">
+      <c r="B71" s="60">
         <f>SUM(ROUND(B72+B73+B74,2))</f>
         <v>0</v>
       </c>
-      <c r="C71" s="62">
+      <c r="C71" s="60">
         <f t="shared" ref="C71:M71" si="8">SUM(ROUND(C72+C73+C74,2))</f>
         <v>0</v>
       </c>
-      <c r="D71" s="62">
+      <c r="D71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E71" s="62">
+      <c r="E71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F71" s="62">
+      <c r="F71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G71" s="62">
+      <c r="G71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H71" s="62">
+      <c r="H71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I71" s="62">
+      <c r="I71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J71" s="62">
+      <c r="J71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K71" s="62">
+      <c r="K71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L71" s="62">
+      <c r="L71" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M71" s="98">
+      <c r="M71" s="96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="82"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="4"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="82"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="4"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="82"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="4"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="81"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="4"/>
+      <c r="A75" s="79"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="81" t="s">
+      <c r="A76" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="82"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="4"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="81" t="s">
+      <c r="A77" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="82"/>
-      <c r="C77" s="82"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="4"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="83" t="s">
+      <c r="A78" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="82"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="4"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="81"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="4"/>
+      <c r="A79" s="79"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="88" t="s">
+      <c r="A80" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="84">
+      <c r="B80" s="82">
         <f>SUM(ROUND(B60+B62+B76+B78,2))</f>
         <v>0</v>
       </c>
-      <c r="C80" s="84">
+      <c r="C80" s="82">
         <f t="shared" ref="C80:M80" si="9">SUM(ROUND(C60+C62+C76+C78,2))</f>
         <v>0</v>
       </c>
-      <c r="D80" s="84">
+      <c r="D80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E80" s="84">
+      <c r="E80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F80" s="84">
+      <c r="F80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G80" s="84">
+      <c r="G80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H80" s="84">
+      <c r="H80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I80" s="84">
+      <c r="I80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J80" s="84">
+      <c r="J80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K80" s="84">
+      <c r="K80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L80" s="84">
+      <c r="L80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M80" s="84">
+      <c r="M80" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="81"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="4"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="84">
+      <c r="B82" s="82">
         <f t="shared" ref="B82:M82" si="10">ROUND(B83+B84+B85+B86+B87,2)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="84">
+      <c r="C82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D82" s="84">
+      <c r="D82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E82" s="84">
+      <c r="E82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F82" s="84">
+      <c r="F82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G82" s="84">
+      <c r="G82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H82" s="84">
+      <c r="H82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I82" s="84">
+      <c r="I82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J82" s="84">
+      <c r="J82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K82" s="84">
+      <c r="K82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L82" s="84">
+      <c r="L82" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M82" s="97">
+      <c r="M82" s="95">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="82"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="4"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="4"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="82"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="4"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="89" t="s">
+      <c r="A86" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B86" s="82"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="4"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="82"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="4"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="3"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="4"/>
+      <c r="A88" s="88"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="3"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="81" t="s">
+      <c r="A89" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="84">
+      <c r="B89" s="82">
         <f>SUM(ROUND(B43+B56+B80+B82,2))</f>
         <v>0</v>
       </c>
-      <c r="C89" s="84">
+      <c r="C89" s="82">
         <f t="shared" ref="C89:M89" si="11">SUM(ROUND(C43+C56+C80+C82,2))</f>
         <v>0</v>
       </c>
-      <c r="D89" s="84">
+      <c r="D89" s="82">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E89" s="84">
+      <c r="E89" s="82">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F89" s="84" t="e">
+      <c r="F89" s="82" t="e">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="G89" s="84" t="e">
+      <c r="G89" s="82" t="e">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="H89" s="84" t="e">
+      <c r="H89" s="82" t="e">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="I89" s="84" t="e">
+      <c r="I89" s="82" t="e">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="J89" s="84" t="e">
+      <c r="J89" s="82" t="e">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="K89" s="84" t="e">
+      <c r="K89" s="82" t="e">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="L89" s="84" t="e">
+      <c r="L89" s="82" t="e">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="M89" s="84" t="e">
+      <c r="M89" s="82" t="e">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="81"/>
-      <c r="B90" s="82"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="4"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="3"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="88" t="s">
+      <c r="A91" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="84">
+      <c r="B91" s="82">
         <f>ROUND(Liabilities!B85-Liabilities!B75-Asset!B82,2)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="84">
+      <c r="C91" s="82">
         <f>ROUND(Liabilities!C85-Liabilities!C75-Asset!C82,2)</f>
         <v>0</v>
       </c>
-      <c r="D91" s="84">
+      <c r="D91" s="82">
         <f>ROUND(Liabilities!D85-Liabilities!D75-Asset!D82,2)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="84">
+      <c r="E91" s="82">
         <f>ROUND(Liabilities!E85-Liabilities!E75-Asset!E82,2)</f>
         <v>0</v>
       </c>
-      <c r="F91" s="84">
+      <c r="F91" s="82">
         <f>ROUND(Liabilities!F85-Liabilities!F75-Asset!F82,2)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="84">
+      <c r="G91" s="82">
         <f>ROUND(Liabilities!G85-Liabilities!G75-Asset!G82,2)</f>
         <v>0</v>
       </c>
-      <c r="H91" s="84">
+      <c r="H91" s="82">
         <f>ROUND(Liabilities!H85-Liabilities!H75-Asset!H82,2)</f>
         <v>0</v>
       </c>
-      <c r="I91" s="84">
+      <c r="I91" s="82">
         <f>ROUND(Liabilities!I85-Liabilities!I75-Asset!I82,2)</f>
         <v>0</v>
       </c>
-      <c r="J91" s="84">
+      <c r="J91" s="82">
         <f>ROUND(Liabilities!J85-Liabilities!J75-Asset!J82,2)</f>
         <v>0</v>
       </c>
-      <c r="K91" s="84">
+      <c r="K91" s="82">
         <f>ROUND(Liabilities!K85-Liabilities!K75-Asset!K82,2)</f>
         <v>0</v>
       </c>
-      <c r="L91" s="84">
+      <c r="L91" s="82">
         <f>ROUND(Liabilities!L85-Liabilities!L75-Asset!L82,2)</f>
         <v>0</v>
       </c>
-      <c r="M91" s="97">
+      <c r="M91" s="95">
         <f>ROUND(Liabilities!M85-Liabilities!M75-Asset!M82,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="81"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="4"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="3"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="81" t="s">
+      <c r="A93" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="B93" s="84">
+      <c r="B93" s="82">
         <f>SUM(ROUND(Liabilities!B55+Liabilities!B85,2))-(ROUND(B56+B80+B82,2))</f>
         <v>0</v>
       </c>
-      <c r="C93" s="84">
+      <c r="C93" s="82">
         <f>SUM(ROUND(Liabilities!C55+Liabilities!C85,2))-(ROUND(C56+C80+C82,2))</f>
         <v>0</v>
       </c>
-      <c r="D93" s="84">
+      <c r="D93" s="82">
         <f>SUM(ROUND(Liabilities!D55+Liabilities!D85,2))-(ROUND(D56+D80+D82,2))</f>
         <v>0</v>
       </c>
-      <c r="E93" s="84">
+      <c r="E93" s="82">
         <f>SUM(ROUND(Liabilities!E55+Liabilities!E85,2))-(ROUND(E56+E80+E82,2))</f>
         <v>0</v>
       </c>
-      <c r="F93" s="84">
+      <c r="F93" s="82">
         <f>SUM(ROUND(Liabilities!F55+Liabilities!F85,2))-(ROUND(F56+F80+F82,2))</f>
         <v>0</v>
       </c>
-      <c r="G93" s="84">
+      <c r="G93" s="82">
         <f>SUM(ROUND(Liabilities!G55+Liabilities!G85,2))-(ROUND(G56+G80+G82,2))</f>
         <v>0</v>
       </c>
-      <c r="H93" s="84">
+      <c r="H93" s="82">
         <f>SUM(ROUND(Liabilities!H55+Liabilities!H85,2))-(ROUND(H56+H80+H82,2))</f>
         <v>0</v>
       </c>
-      <c r="I93" s="84">
+      <c r="I93" s="82">
         <f>SUM(ROUND(Liabilities!I55+Liabilities!I85,2))-(ROUND(I56+I80+I82,2))</f>
         <v>0</v>
       </c>
-      <c r="J93" s="84">
+      <c r="J93" s="82">
         <f>SUM(ROUND(Liabilities!J55+Liabilities!J85,2))-(ROUND(J56+J80+J82,2))</f>
         <v>0</v>
       </c>
-      <c r="K93" s="84">
+      <c r="K93" s="82">
         <f>SUM(ROUND(Liabilities!K55+Liabilities!K85,2))-(ROUND(K56+K80+K82,2))</f>
         <v>0</v>
       </c>
-      <c r="L93" s="84">
+      <c r="L93" s="82">
         <f>SUM(ROUND(Liabilities!L55+Liabilities!L85,2))-(ROUND(L56+L80+L82,2))</f>
         <v>0</v>
       </c>
-      <c r="M93" s="97">
+      <c r="M93" s="95">
         <f>SUM(ROUND(Liabilities!M55+Liabilities!M85,2))-(ROUND(M56+M80+M82,2))</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="81"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="4"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="3"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="81" t="s">
+      <c r="A95" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B95" s="84">
+      <c r="B95" s="82">
         <f>IF(Liabilities!B37=0,0,(ROUND(B43/Liabilities!B37,2)))</f>
         <v>0</v>
       </c>
-      <c r="C95" s="84">
+      <c r="C95" s="82">
         <f>IF(Liabilities!C37=0,0,(ROUND(C43/Liabilities!C37,2)))</f>
         <v>0</v>
       </c>
-      <c r="D95" s="84">
+      <c r="D95" s="82">
         <f>IF(Liabilities!D37=0,0,(ROUND(D43/Liabilities!D37,2)))</f>
         <v>0</v>
       </c>
-      <c r="E95" s="84">
+      <c r="E95" s="82">
         <f>IF(Liabilities!E37=0,0,(ROUND(E43/Liabilities!E37,2)))</f>
         <v>0</v>
       </c>
-      <c r="F95" s="84">
+      <c r="F95" s="82">
         <f>IF(Liabilities!F37=0,0,(ROUND(F43/Liabilities!F37,2)))</f>
         <v>0</v>
       </c>
-      <c r="G95" s="84">
+      <c r="G95" s="82">
         <f>IF(Liabilities!G37=0,0,(ROUND(G43/Liabilities!G37,2)))</f>
         <v>0</v>
       </c>
-      <c r="H95" s="84">
+      <c r="H95" s="82">
         <f>IF(Liabilities!H37=0,0,(ROUND(H43/Liabilities!H37,2)))</f>
         <v>0</v>
       </c>
-      <c r="I95" s="84">
+      <c r="I95" s="82">
         <f>IF(Liabilities!I37=0,0,(ROUND(I43/Liabilities!I37,2)))</f>
         <v>0</v>
       </c>
-      <c r="J95" s="84">
+      <c r="J95" s="82">
         <f>IF(Liabilities!J37=0,0,(ROUND(J43/Liabilities!J37,2)))</f>
         <v>0</v>
       </c>
-      <c r="K95" s="84">
+      <c r="K95" s="82">
         <f>IF(Liabilities!K37=0,0,(ROUND(K43/Liabilities!K37,2)))</f>
         <v>0</v>
       </c>
-      <c r="L95" s="84">
+      <c r="L95" s="82">
         <f>IF(Liabilities!L37=0,0,(ROUND(L43/Liabilities!L37,2)))</f>
         <v>0</v>
       </c>
-      <c r="M95" s="97">
+      <c r="M95" s="95">
         <f>IF(Liabilities!M37=0,0,(ROUND(M43/Liabilities!M37,2)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="81"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="4"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="81" t="s">
+      <c r="A97" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="84">
+      <c r="B97" s="82">
         <f>IF(B91=0,0,(ROUND(Liabilities!B63/B91,2)))</f>
         <v>0</v>
       </c>
-      <c r="C97" s="84">
+      <c r="C97" s="82">
         <f>IF(C91=0,0,(ROUND(Liabilities!C63/C91,2)))</f>
         <v>0</v>
       </c>
-      <c r="D97" s="84">
+      <c r="D97" s="82">
         <f>IF(D91=0,0,(ROUND(Liabilities!D63/D91,2)))</f>
         <v>0</v>
       </c>
-      <c r="E97" s="84">
+      <c r="E97" s="82">
         <f>IF(E91=0,0,(ROUND(Liabilities!E63/E91,2)))</f>
         <v>0</v>
       </c>
-      <c r="F97" s="84">
+      <c r="F97" s="82">
         <f>IF(F91=0,0,(ROUND(Liabilities!F63/F91,2)))</f>
         <v>0</v>
       </c>
-      <c r="G97" s="84">
+      <c r="G97" s="82">
         <f>IF(G91=0,0,(ROUND(Liabilities!G63/G91,2)))</f>
         <v>0</v>
       </c>
-      <c r="H97" s="84">
+      <c r="H97" s="82">
         <f>IF(H91=0,0,(ROUND(Liabilities!H63/H91,2)))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="84">
+      <c r="I97" s="82">
         <f>IF(I91=0,0,(ROUND(Liabilities!I63/I91,2)))</f>
         <v>0</v>
       </c>
-      <c r="J97" s="84">
+      <c r="J97" s="82">
         <f>IF(J91=0,0,(ROUND(Liabilities!J63/J91,2)))</f>
         <v>0</v>
       </c>
-      <c r="K97" s="84">
+      <c r="K97" s="82">
         <f>IF(K91=0,0,(ROUND(Liabilities!K63/K91,2)))</f>
         <v>0</v>
       </c>
-      <c r="L97" s="84">
+      <c r="L97" s="82">
         <f>IF(L91=0,0,(ROUND(Liabilities!L63/L91,2)))</f>
         <v>0</v>
       </c>
-      <c r="M97" s="97">
+      <c r="M97" s="95">
         <f>IF(M91=0,0,(ROUND(Liabilities!M63/M91,2)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="81"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="4"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="3"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="91" t="s">
+      <c r="A99" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B99" s="92">
+      <c r="B99" s="90">
         <f>IF(B91=0,0,(ROUND(Liabilities!B55/B91,2)))</f>
         <v>0</v>
       </c>
-      <c r="C99" s="92">
+      <c r="C99" s="90">
         <f>IF(C91=0,0,(ROUND(Liabilities!C55/C91,2)))</f>
         <v>0</v>
       </c>
-      <c r="D99" s="92">
+      <c r="D99" s="90">
         <f>IF(D91=0,0,(ROUND(Liabilities!D55/D91,2)))</f>
         <v>0</v>
       </c>
-      <c r="E99" s="92">
+      <c r="E99" s="90">
         <f>IF(E91=0,0,(ROUND(Liabilities!E55/E91,2)))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="92">
+      <c r="F99" s="90">
         <f>IF(F91=0,0,(ROUND(Liabilities!F55/F91,2)))</f>
         <v>0</v>
       </c>
-      <c r="G99" s="92">
+      <c r="G99" s="90">
         <f>IF(G91=0,0,(ROUND(Liabilities!G55/G91,2)))</f>
         <v>0</v>
       </c>
-      <c r="H99" s="92">
+      <c r="H99" s="90">
         <f>IF(H91=0,0,(ROUND(Liabilities!H55/H91,2)))</f>
         <v>0</v>
       </c>
-      <c r="I99" s="92">
+      <c r="I99" s="90">
         <f>IF(I91=0,0,(ROUND(Liabilities!I55/I91,2)))</f>
         <v>0</v>
       </c>
-      <c r="J99" s="92">
+      <c r="J99" s="90">
         <f>IF(J91=0,0,(ROUND(Liabilities!J55/J91,2)))</f>
         <v>0</v>
       </c>
-      <c r="K99" s="92">
+      <c r="K99" s="90">
         <f>IF(K91=0,0,(ROUND(Liabilities!K55/K91,2)))</f>
         <v>0</v>
       </c>
-      <c r="L99" s="92">
+      <c r="L99" s="90">
         <f>IF(L91=0,0,(ROUND(Liabilities!L55/L91,2)))</f>
         <v>0</v>
       </c>
-      <c r="M99" s="99">
+      <c r="M99" s="97">
         <f>IF(M91=0,0,(ROUND(Liabilities!M55/M91,2)))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rHFnn36dDXVsjiSgK8V7A0sh5cIHrtuty/phCDBmp5QeYFfHehd+M2RumDAvPsSYihnV3DBianORAQokAFfAbw==" saltValue="PuqpZdmDzQ05Ip9IdfgtvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -7226,17 +7094,13 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>$I$1:$M$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>$N$2</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
     <sheet name="Liabilities" sheetId="3" r:id="rId2"/>
     <sheet name="Asset" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="171">
   <si>
     <t xml:space="preserve">     [b] Dividend Rate [in %]</t>
   </si>
@@ -545,16 +545,25 @@
   <si>
     <t>31. Investments [other than long-term investments]</t>
   </si>
+  <si>
+    <t>Other Income: Need to check at the time of Due Diligence</t>
+  </si>
+  <si>
+    <t>Other Liabilities (Need to check at the time of Due Diligence)</t>
+  </si>
+  <si>
+    <t>Other Assets (Need to check at the time of Due Diligence)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +645,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1098,11 +1122,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1136,7 +1160,7 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1320,10 +1344,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1337,6 +1360,15 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1357,6 +1389,18 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1385,21 +1429,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1407,12 +1439,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1479,7 +1505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,7 +1540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1725,17 +1751,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="59" style="19" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="5" width="17.7109375" style="19" customWidth="1" collapsed="1"/>
     <col min="6" max="7" width="7.5703125" style="19" hidden="1" customWidth="1" collapsed="1"/>
     <col min="8" max="10" width="9.140625" style="19" hidden="1" customWidth="1" collapsed="1"/>
@@ -1746,13 +1772,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
       <c r="F1" s="18" t="s">
         <v>45</v>
       </c>
@@ -1770,36 +1796,36 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="119" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="98" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2619,8 +2645,8 @@
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
-        <v>2</v>
+      <c r="A76" s="99" t="s">
+        <v>168</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -2642,19 +2668,19 @@
         <v>15. Net Profit/loss [13-14]</v>
       </c>
       <c r="B78" s="38">
-        <f>B73-B75-B77</f>
+        <f>B73-B75+B76-B77</f>
         <v>0</v>
       </c>
       <c r="C78" s="38">
-        <f>IF(B78="","",SUM((ROUND(C73-(C77+C75),2))))</f>
+        <f>IF(B78="","",SUM((ROUND((C73+C76)-(C77+C75),2))))</f>
         <v>0</v>
       </c>
       <c r="D78" s="38">
-        <f>IF(A78="","",SUM((ROUND(D73-(D77+D75),2))))</f>
+        <f t="shared" ref="D78:E78" si="17">IF(C78="","",SUM((ROUND((D73+D76)-(D77+D75),2))))</f>
         <v>0</v>
       </c>
       <c r="E78" s="38">
-        <f>IF(A78="","",SUM((ROUND(E73-(E77+E75),2))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -2717,19 +2743,19 @@
         <v>108</v>
       </c>
       <c r="B84" s="38">
-        <f t="shared" ref="B84:E84" si="17">B78-B80</f>
+        <f t="shared" ref="B84:E84" si="18">B78-B80</f>
         <v>0</v>
       </c>
       <c r="C84" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D84" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E84" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2745,24 +2771,23 @@
         <v>109</v>
       </c>
       <c r="B86" s="39">
-        <f t="shared" ref="B86:E86" si="18">IFERROR((B84/B78),0)</f>
+        <f t="shared" ref="B86:E86" si="19">IFERROR((B84/B78),0)</f>
         <v>0</v>
       </c>
       <c r="C86" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D86" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E86" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -2785,29 +2810,29 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="45" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="63.85546875" style="45" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="5" width="17.7109375" style="45" customWidth="1" collapsed="1"/>
     <col min="6" max="13" width="17.7109375" style="45" hidden="1" customWidth="1" collapsed="1"/>
     <col min="14" max="16384" width="9.140625" style="45" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -2828,13 +2853,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -2845,13 +2870,13 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -2862,15 +2887,15 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="119" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="98" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="47"/>
@@ -2889,7 +2914,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="113" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="28">
@@ -2936,76 +2961,76 @@
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M5" s="91" t="e">
+      <c r="M5" s="90" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="111" t="str">
+      <c r="A6" s="114"/>
+      <c r="B6" s="109" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="111" t="str">
+      <c r="C6" s="109" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="111" t="str">
+      <c r="D6" s="109" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="111" t="str">
+      <c r="E6" s="109" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="111" t="e">
+      <c r="F6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="111" t="e">
+      <c r="G6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="111" t="e">
+      <c r="H6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="111" t="e">
+      <c r="I6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="111" t="e">
+      <c r="J6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="111" t="e">
+      <c r="K6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="111" t="e">
+      <c r="L6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="113" t="e">
+      <c r="M6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="114"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
@@ -3024,7 +3049,7 @@
       <c r="L8" s="49"/>
       <c r="M8" s="50"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>69</v>
       </c>
@@ -3174,7 +3199,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="92">
+      <c r="M15" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3258,7 +3283,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>62</v>
       </c>
@@ -3354,7 +3379,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>59</v>
       </c>
@@ -3386,7 +3411,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>58</v>
       </c>
@@ -3433,7 +3458,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="s">
         <v>57</v>
       </c>
@@ -3451,7 +3476,7 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -3466,7 +3491,7 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="104"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -3528,7 +3553,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="92">
+      <c r="M35" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3548,7 +3573,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
         <v>55</v>
       </c>
@@ -3596,7 +3621,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M37" s="92">
+      <c r="M37" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3712,7 +3737,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>52</v>
       </c>
@@ -3960,7 +3985,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M55" s="92">
+      <c r="M55" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3984,24 +4009,24 @@
       <c r="A57" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="100">
         <f>SUM(ROUND(B58+B59+B60+B61,2))</f>
         <v>0</v>
       </c>
-      <c r="C57" s="56">
-        <f t="shared" ref="C57:M57" si="5">SUM(ROUND(C58+C59+C60+C61,2))</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="56">
-        <f t="shared" si="5"/>
+      <c r="C57" s="100">
+        <f>SUM(ROUND(C58+C59+C60+C61,2))</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="100">
+        <f>SUM(ROUND(D58+D59+D60+D61,2))</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="100">
+        <f>SUM(ROUND(E58+E59+E60+E61,2))</f>
         <v>0</v>
       </c>
       <c r="F57" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F57:M57" si="5">SUM(ROUND(F58+F59+F60+F61,2))</f>
         <v>0</v>
       </c>
       <c r="G57" s="56">
@@ -4102,7 +4127,6 @@
       <c r="M61" s="17"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
@@ -4116,28 +4140,28 @@
       <c r="L62" s="2"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="57">
-        <f t="shared" ref="B63:M63" si="6">SUM(ROUND(B37+B55+B57,2))</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D63" s="57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="57">
-        <f t="shared" si="6"/>
+      <c r="B63" s="101">
+        <f>SUM(ROUND(B37+B55+B57,2))</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="101">
+        <f>SUM(ROUND(C37+C55+C57,2))</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="101">
+        <f>SUM(ROUND(D37+D55+D57,2))</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="101">
+        <f>SUM(ROUND(E37+E55+E57,2))</f>
         <v>0</v>
       </c>
       <c r="F63" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F63:M63" si="6">SUM(ROUND(F37+F55+F57,2))</f>
         <v>0</v>
       </c>
       <c r="G63" s="57">
@@ -4164,7 +4188,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M63" s="92">
+      <c r="M63" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4552,13 +4576,15 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M85" s="92">
+      <c r="M85" s="91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
+      <c r="A86" s="99" t="s">
+        <v>169</v>
+      </c>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
@@ -4577,23 +4603,23 @@
         <v>124</v>
       </c>
       <c r="B87" s="71">
-        <f>SUM(ROUND(B63+B85,2))</f>
+        <f>SUM(ROUND(B63+B85+B86,2))</f>
         <v>0</v>
       </c>
       <c r="C87" s="71">
-        <f t="shared" ref="C87:M87" si="8">SUM(ROUND(C63+C85,2))</f>
+        <f>SUM(ROUND(C63+C85+C86,2))</f>
         <v>0</v>
       </c>
       <c r="D87" s="71">
-        <f t="shared" si="8"/>
+        <f>SUM(ROUND(D63+D85+D86,2))</f>
         <v>0</v>
       </c>
       <c r="E87" s="71">
-        <f t="shared" si="8"/>
+        <f>SUM(ROUND(E63+E85+E86,2))</f>
         <v>0</v>
       </c>
       <c r="F87" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F87:M87" si="8">SUM(ROUND(F63+F85,2))</f>
         <v>0</v>
       </c>
       <c r="G87" s="71">
@@ -4620,7 +4646,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M87" s="93">
+      <c r="M87" s="92">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4628,14 +4654,6 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:E1"/>
@@ -4646,6 +4664,14 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
@@ -4664,30 +4690,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="63.85546875" style="74" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="5" width="17.7109375" style="45" customWidth="1" collapsed="1"/>
     <col min="6" max="13" width="17.7109375" style="45" hidden="1" customWidth="1" collapsed="1"/>
     <col min="14" max="16384" width="0" style="45" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -4708,13 +4734,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -4725,13 +4751,13 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -4742,15 +4768,15 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="119" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="98" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="47"/>
@@ -4769,7 +4795,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="121" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="75">
@@ -4816,76 +4842,76 @@
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M5" s="94" t="e">
+      <c r="M5" s="93" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="111" t="str">
+      <c r="A6" s="122"/>
+      <c r="B6" s="109" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="111" t="str">
+      <c r="C6" s="109" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="111" t="str">
+      <c r="D6" s="109" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="111" t="str">
+      <c r="E6" s="109" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="111" t="e">
+      <c r="F6" s="109" t="e">
         <f>Liabilities!F6</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="111" t="e">
+      <c r="G6" s="109" t="e">
         <f>Liabilities!G6</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="111" t="e">
+      <c r="H6" s="109" t="e">
         <f>Liabilities!H6</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="111" t="e">
+      <c r="I6" s="109" t="e">
         <f>Liabilities!I6</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="111" t="e">
+      <c r="J6" s="109" t="e">
         <f>Liabilities!J6</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="111" t="e">
+      <c r="K6" s="109" t="e">
         <f>Liabilities!K6</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="111" t="e">
+      <c r="L6" s="109" t="e">
         <f>Liabilities!L6</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="113" t="e">
+      <c r="M6" s="107" t="e">
         <f>Liabilities!M6</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="116"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
@@ -4936,7 +4962,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
         <v>167</v>
       </c>
@@ -4984,7 +5010,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="95">
+      <c r="M11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5057,7 +5083,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>129</v>
       </c>
@@ -5125,7 +5151,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>130</v>
       </c>
@@ -5205,7 +5231,7 @@
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="95" t="e">
+      <c r="M22" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
@@ -5273,7 +5299,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="92">
+      <c r="M24" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5348,22 +5374,10 @@
       <c r="A29" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="82">
-        <f>'Operating Stmt.'!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="82">
-        <f>'Operating Stmt.'!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="82">
-        <f>'Operating Stmt.'!D42</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="82">
-        <f>'Operating Stmt.'!E42</f>
-        <v>0</v>
-      </c>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
@@ -5392,7 +5406,7 @@
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M29" s="95" t="e">
+      <c r="M29" s="94" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5416,22 +5430,10 @@
       <c r="A31" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="82">
-        <f>'Operating Stmt.'!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="82">
-        <f>'Operating Stmt.'!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="82">
-        <f>'Operating Stmt.'!D50</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="82">
-        <f>'Operating Stmt.'!E50</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
       <c r="F31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
@@ -5460,7 +5462,7 @@
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M31" s="95" t="e">
+      <c r="M31" s="94" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -5528,7 +5530,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="92">
+      <c r="M33" s="91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5582,7 +5584,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>132</v>
       </c>
@@ -5648,7 +5650,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
         <v>134</v>
       </c>
@@ -5728,7 +5730,7 @@
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="M43" s="92" t="e">
+      <c r="M43" s="91" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
@@ -5748,7 +5750,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
         <v>136</v>
       </c>
@@ -6141,7 +6143,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M62" s="92">
+      <c r="M62" s="91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6212,7 +6214,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="81" t="s">
         <v>79</v>
       </c>
@@ -6246,7 +6248,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="81" t="s">
         <v>77</v>
       </c>
@@ -6328,7 +6330,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M71" s="96">
+      <c r="M71" s="95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6433,7 +6435,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="81" t="s">
         <v>148</v>
       </c>
@@ -6533,7 +6535,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="81" t="s">
         <v>150</v>
       </c>
@@ -6581,7 +6583,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M82" s="95">
+      <c r="M82" s="94">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6672,7 +6674,9 @@
       <c r="M87" s="3"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="88"/>
+      <c r="A88" s="99" t="s">
+        <v>170</v>
+      </c>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
       <c r="D88" s="80"/>
@@ -6691,23 +6695,23 @@
         <v>154</v>
       </c>
       <c r="B89" s="82">
-        <f>SUM(ROUND(B43+B56+B80+B82,2))</f>
+        <f>SUM(ROUND(B43+B56+B80+B82+B88,2))</f>
         <v>0</v>
       </c>
       <c r="C89" s="82">
-        <f t="shared" ref="C89:M89" si="11">SUM(ROUND(C43+C56+C80+C82,2))</f>
+        <f>SUM(ROUND(C43+C56+C80+C82+C88,2))</f>
         <v>0</v>
       </c>
       <c r="D89" s="82">
-        <f t="shared" si="11"/>
+        <f>SUM(ROUND(D43+D56+D80+D82+D88,2))</f>
         <v>0</v>
       </c>
       <c r="E89" s="82">
-        <f t="shared" si="11"/>
+        <f>SUM(ROUND(E43+E56+E80+E82+E88,2))</f>
         <v>0</v>
       </c>
       <c r="F89" s="82" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F89:M89" si="11">SUM(ROUND(F43+F56+F80+F82,2))</f>
         <v>#REF!</v>
       </c>
       <c r="G89" s="82" t="e">
@@ -6802,7 +6806,7 @@
         <f>ROUND(Liabilities!L85-Liabilities!L75-Asset!L82,2)</f>
         <v>0</v>
       </c>
-      <c r="M91" s="95">
+      <c r="M91" s="94">
         <f>ROUND(Liabilities!M85-Liabilities!M75-Asset!M82,2)</f>
         <v>0</v>
       </c>
@@ -6870,7 +6874,7 @@
         <f>SUM(ROUND(Liabilities!L55+Liabilities!L85,2))-(ROUND(L56+L80+L82,2))</f>
         <v>0</v>
       </c>
-      <c r="M93" s="95">
+      <c r="M93" s="94">
         <f>SUM(ROUND(Liabilities!M55+Liabilities!M85,2))-(ROUND(M56+M80+M82,2))</f>
         <v>0</v>
       </c>
@@ -6938,7 +6942,7 @@
         <f>IF(Liabilities!L37=0,0,(ROUND(L43/Liabilities!L37,2)))</f>
         <v>0</v>
       </c>
-      <c r="M95" s="95">
+      <c r="M95" s="94">
         <f>IF(Liabilities!M37=0,0,(ROUND(M43/Liabilities!M37,2)))</f>
         <v>0</v>
       </c>
@@ -7006,7 +7010,7 @@
         <f>IF(L91=0,0,(ROUND(Liabilities!L63/L91,2)))</f>
         <v>0</v>
       </c>
-      <c r="M97" s="95">
+      <c r="M97" s="94">
         <f>IF(M91=0,0,(ROUND(Liabilities!M63/M91,2)))</f>
         <v>0</v>
       </c>
@@ -7027,60 +7031,59 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="89" t="s">
+      <c r="A99" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="B99" s="90">
+      <c r="B99" s="89">
         <f>IF(B91=0,0,(ROUND(Liabilities!B55/B91,2)))</f>
         <v>0</v>
       </c>
-      <c r="C99" s="90">
+      <c r="C99" s="89">
         <f>IF(C91=0,0,(ROUND(Liabilities!C55/C91,2)))</f>
         <v>0</v>
       </c>
-      <c r="D99" s="90">
+      <c r="D99" s="89">
         <f>IF(D91=0,0,(ROUND(Liabilities!D55/D91,2)))</f>
         <v>0</v>
       </c>
-      <c r="E99" s="90">
+      <c r="E99" s="89">
         <f>IF(E91=0,0,(ROUND(Liabilities!E55/E91,2)))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="90">
+      <c r="F99" s="89">
         <f>IF(F91=0,0,(ROUND(Liabilities!F55/F91,2)))</f>
         <v>0</v>
       </c>
-      <c r="G99" s="90">
+      <c r="G99" s="89">
         <f>IF(G91=0,0,(ROUND(Liabilities!G55/G91,2)))</f>
         <v>0</v>
       </c>
-      <c r="H99" s="90">
+      <c r="H99" s="89">
         <f>IF(H91=0,0,(ROUND(Liabilities!H55/H91,2)))</f>
         <v>0</v>
       </c>
-      <c r="I99" s="90">
+      <c r="I99" s="89">
         <f>IF(I91=0,0,(ROUND(Liabilities!I55/I91,2)))</f>
         <v>0</v>
       </c>
-      <c r="J99" s="90">
+      <c r="J99" s="89">
         <f>IF(J91=0,0,(ROUND(Liabilities!J55/J91,2)))</f>
         <v>0</v>
       </c>
-      <c r="K99" s="90">
+      <c r="K99" s="89">
         <f>IF(K91=0,0,(ROUND(Liabilities!K55/K91,2)))</f>
         <v>0</v>
       </c>
-      <c r="L99" s="90">
+      <c r="L99" s="89">
         <f>IF(L91=0,0,(ROUND(Liabilities!L55/L91,2)))</f>
         <v>0</v>
       </c>
-      <c r="M99" s="97">
+      <c r="M99" s="96">
         <f>IF(M91=0,0,(ROUND(Liabilities!M55/M91,2)))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A5:A7"/>

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
     <sheet name="Liabilities" sheetId="3" r:id="rId2"/>
     <sheet name="Asset" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -560,8 +560,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1122,9 +1122,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1160,7 +1160,7 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1344,7 +1344,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1389,18 +1389,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1429,7 +1417,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1505,7 +1505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1540,7 +1540,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1751,12 +1751,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78:E78"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2660,7 +2660,7 @@
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="8"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="str">
@@ -2788,6 +2788,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -2810,11 +2811,11 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2826,13 +2827,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -2853,13 +2854,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -2870,13 +2871,13 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -2887,11 +2888,11 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="97" t="s">
         <v>40</v>
       </c>
@@ -2914,7 +2915,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="109" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="28">
@@ -2967,70 +2968,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="109" t="str">
+      <c r="A6" s="110"/>
+      <c r="B6" s="115" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="109" t="str">
+      <c r="C6" s="115" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="109" t="str">
+      <c r="D6" s="115" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="109" t="str">
+      <c r="E6" s="115" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="109" t="e">
+      <c r="F6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="109" t="e">
+      <c r="G6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="109" t="e">
+      <c r="H6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="109" t="e">
+      <c r="I6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="109" t="e">
+      <c r="J6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="109" t="e">
+      <c r="K6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="109" t="e">
+      <c r="L6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="107" t="e">
+      <c r="M6" s="117" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="108"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="118"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
@@ -3476,7 +3477,7 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -3491,7 +3492,7 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -4588,7 +4589,7 @@
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="55"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -4654,6 +4655,14 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:E1"/>
@@ -4664,14 +4673,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
@@ -4690,12 +4691,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4707,13 +4708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -4734,13 +4735,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -4751,13 +4752,13 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -4768,11 +4769,11 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="97" t="s">
         <v>40</v>
       </c>
@@ -4849,68 +4850,68 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="122"/>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="115" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="109" t="str">
+      <c r="C6" s="115" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="109" t="str">
+      <c r="D6" s="115" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="109" t="str">
+      <c r="E6" s="115" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="109" t="e">
+      <c r="F6" s="115" t="e">
         <f>Liabilities!F6</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="109" t="e">
+      <c r="G6" s="115" t="e">
         <f>Liabilities!G6</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="109" t="e">
+      <c r="H6" s="115" t="e">
         <f>Liabilities!H6</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="109" t="e">
+      <c r="I6" s="115" t="e">
         <f>Liabilities!I6</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="109" t="e">
+      <c r="J6" s="115" t="e">
         <f>Liabilities!J6</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="109" t="e">
+      <c r="K6" s="115" t="e">
         <f>Liabilities!K6</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="109" t="e">
+      <c r="L6" s="115" t="e">
         <f>Liabilities!L6</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="107" t="e">
+      <c r="M6" s="117" t="e">
         <f>Liabilities!M6</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="122"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
       <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6680,7 +6681,7 @@
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
       <c r="D88" s="80"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="80"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -7084,7 +7085,12 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -7098,10 +7104,6 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -1389,6 +1389,18 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1417,19 +1429,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2827,13 +2827,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -2854,13 +2854,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -2871,13 +2871,13 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -2888,11 +2888,11 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="97" t="s">
         <v>40</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="28">
@@ -2968,70 +2968,70 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="115" t="str">
+      <c r="A6" s="114"/>
+      <c r="B6" s="109" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="115" t="str">
+      <c r="C6" s="109" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="115" t="str">
+      <c r="D6" s="109" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="115" t="str">
+      <c r="E6" s="109" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="115" t="e">
+      <c r="F6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="115" t="e">
+      <c r="G6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="115" t="e">
+      <c r="H6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="115" t="e">
+      <c r="I6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="115" t="e">
+      <c r="J6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="115" t="e">
+      <c r="K6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="115" t="e">
+      <c r="L6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="117" t="e">
+      <c r="M6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="118"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
@@ -3477,7 +3477,7 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -3492,7 +3492,7 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -4655,14 +4655,6 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:E1"/>
@@ -4673,6 +4665,14 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
@@ -4708,13 +4708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -4735,13 +4735,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -4752,13 +4752,13 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -4769,11 +4769,11 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="97" t="s">
         <v>40</v>
       </c>
@@ -4850,68 +4850,68 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="122"/>
-      <c r="B6" s="115" t="str">
+      <c r="B6" s="109" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="115" t="str">
+      <c r="C6" s="109" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="115" t="str">
+      <c r="D6" s="109" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="115" t="str">
+      <c r="E6" s="109" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="115" t="e">
+      <c r="F6" s="109" t="e">
         <f>Liabilities!F6</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="115" t="e">
+      <c r="G6" s="109" t="e">
         <f>Liabilities!G6</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="115" t="e">
+      <c r="H6" s="109" t="e">
         <f>Liabilities!H6</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="115" t="e">
+      <c r="I6" s="109" t="e">
         <f>Liabilities!I6</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="115" t="e">
+      <c r="J6" s="109" t="e">
         <f>Liabilities!J6</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="115" t="e">
+      <c r="K6" s="109" t="e">
         <f>Liabilities!K6</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="115" t="e">
+      <c r="L6" s="109" t="e">
         <f>Liabilities!L6</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="117" t="e">
+      <c r="M6" s="107" t="e">
         <f>Liabilities!M6</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="122"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
       <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -5375,10 +5375,10 @@
       <c r="A29" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
@@ -5431,10 +5431,10 @@
       <c r="A31" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="82" t="e">
         <f>'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
@@ -7087,6 +7087,7 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -7103,7 +7104,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49F3CD-D6C1-47E7-AF67-2A27D17CACB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
     <sheet name="Liabilities" sheetId="3" r:id="rId2"/>
     <sheet name="Asset" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,9 +108,6 @@
     <t xml:space="preserve">     i]  Raw materials[including stores     &amp; other items used in the process of manufacture]</t>
   </si>
   <si>
-    <t>5.  Cost of Sales</t>
-  </si>
-  <si>
     <t>4.  % rise [+] or fall [-]in net sales as compared to last year [annualised]</t>
   </si>
   <si>
@@ -110,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">   Deduct other items</t>
-  </si>
-  <si>
-    <t>2. Less Excise Duty</t>
   </si>
   <si>
     <t xml:space="preserve">     Total</t>
@@ -554,11 +556,17 @@
   <si>
     <t>Other Assets (Need to check at the time of Due Diligence)</t>
   </si>
+  <si>
+    <t>2. Less : Indirect Taxes</t>
+  </si>
+  <si>
+    <t>5.  Cost of Sales (including indirect taxes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1389,18 +1397,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1429,7 +1425,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1444,7 +1452,7 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1505,7 +1513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1538,9 +1546,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1573,6 +1598,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1748,7 +1790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1756,7 +1798,7 @@
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1773,43 +1815,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
       <c r="D1" s="102"/>
       <c r="E1" s="102"/>
       <c r="F1" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
       <c r="D2" s="103"/>
       <c r="E2" s="103"/>
       <c r="F2" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
@@ -1818,15 +1860,15 @@
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="106"/>
       <c r="C4" s="106"/>
       <c r="D4" s="97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
@@ -1850,21 +1892,21 @@
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1875,7 +1917,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -1886,7 +1928,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -1897,7 +1939,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -1908,7 +1950,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="31">
         <f>SUM(ROUND(B8+B9+B10,2))</f>
@@ -1940,7 +1982,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -1949,7 +1991,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -1958,7 +2000,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="31">
         <f t="shared" ref="B15:E15" si="1">IF(B11=0,0,SUM(ROUND((B11)-(B13+B14),2)))</f>
@@ -1986,7 +2028,7 @@
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="33">
@@ -2011,7 +2053,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -2380,7 +2422,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -2396,7 +2438,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
@@ -2412,7 +2454,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B58" s="38">
         <f>(ROUND(B52+B56+B54,2))</f>
@@ -2440,7 +2482,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" s="38">
         <f t="shared" ref="B60:E60" si="11">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
@@ -2468,7 +2510,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2484,7 +2526,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" s="38">
         <f t="shared" ref="B64:E64" si="12">(ROUND(B60-B62,2))</f>
@@ -2512,7 +2554,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2609,7 +2651,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73" s="38">
         <f t="shared" ref="B73:E73" si="16">SUM(ROUND(B64+B70-B71,2))</f>
@@ -2637,7 +2679,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -2646,7 +2688,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="99" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -2696,7 +2738,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="11"/>
@@ -2740,7 +2782,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B84" s="38">
         <f t="shared" ref="B84:E84" si="18">B78-B80</f>
@@ -2768,7 +2810,7 @@
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B86" s="39">
         <f t="shared" ref="B86:E86" si="19">IFERROR((B84/B78),0)</f>
@@ -2788,7 +2830,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -2796,10 +2838,10 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:E16 B18:E81">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:E16 B18:E81" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:E86 B17:E17"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:E86 B17:E17" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2807,11 +2849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
@@ -2827,40 +2869,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="A1" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
       <c r="I1" s="42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="A2" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -2871,13 +2913,13 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
+      <c r="A3" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -2888,16 +2930,16 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
+      <c r="A4" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -2915,8 +2957,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
-        <v>71</v>
+      <c r="A5" s="109" t="s">
+        <v>69</v>
       </c>
       <c r="B5" s="28">
         <f>'Operating Stmt.'!B5</f>
@@ -2968,74 +3010,74 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="109" t="str">
+      <c r="A6" s="110"/>
+      <c r="B6" s="115" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="109" t="str">
+      <c r="C6" s="115" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="109" t="str">
+      <c r="D6" s="115" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="109" t="str">
+      <c r="E6" s="115" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="109" t="e">
+      <c r="F6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="109" t="e">
+      <c r="G6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="109" t="e">
+      <c r="H6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="109" t="e">
+      <c r="I6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="109" t="e">
+      <c r="J6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="109" t="e">
+      <c r="K6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="109" t="e">
+      <c r="L6" s="115" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="107" t="e">
+      <c r="M6" s="117" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="108"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="118"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -3052,7 +3094,7 @@
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -3086,7 +3128,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
@@ -3103,7 +3145,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
@@ -3120,7 +3162,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -3137,7 +3179,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -3154,7 +3196,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="57">
         <f>SUM(ROUND(B11+B12,2))</f>
@@ -3222,7 +3264,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -3254,7 +3296,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -3286,7 +3328,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -3318,7 +3360,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
@@ -3350,7 +3392,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -3382,7 +3424,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
@@ -3414,7 +3456,7 @@
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
@@ -3461,7 +3503,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="60"/>
       <c r="C32" s="56"/>
@@ -3477,7 +3519,7 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -3492,7 +3534,7 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -3508,7 +3550,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="57">
         <f t="shared" ref="B35:M35" si="1">SUM(ROUND(B17+B19+B21+B23+B25+B27+B29+B32,2))</f>
@@ -3576,7 +3618,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="57">
         <f t="shared" ref="B37:M37" si="2">SUM(ROUND(B15+B35,2))</f>
@@ -3644,7 +3686,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -3676,7 +3718,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" s="56"/>
       <c r="C41" s="56"/>
@@ -3708,7 +3750,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
@@ -3740,7 +3782,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="56">
         <f>SUM(ROUND(B46+B47,2))</f>
@@ -3793,7 +3835,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
@@ -3810,7 +3852,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
@@ -3842,7 +3884,7 @@
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="56"/>
       <c r="C49" s="56"/>
@@ -3859,7 +3901,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -3876,7 +3918,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="56"/>
       <c r="C51" s="56"/>
@@ -3908,7 +3950,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" s="56"/>
       <c r="C53" s="56"/>
@@ -3940,7 +3982,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="57">
         <f t="shared" ref="B55:M55" si="4">SUM(ROUND(B41+B43+B45+B49+B51+B53,2))</f>
@@ -4008,7 +4050,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="100">
         <f>SUM(ROUND(B58+B59+B60+B61,2))</f>
@@ -4061,7 +4103,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -4078,7 +4120,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -4095,7 +4137,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -4112,7 +4154,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -4143,7 +4185,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63" s="101">
         <f>SUM(ROUND(B37+B55+B57,2))</f>
@@ -4211,7 +4253,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -4243,7 +4285,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -4275,7 +4317,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -4307,7 +4349,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -4339,7 +4381,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -4371,7 +4413,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -4403,7 +4445,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -4435,7 +4477,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -4467,7 +4509,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -4499,7 +4541,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -4531,7 +4573,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" s="57">
         <f>SUM(ROUND(B67+B69+B71+B73+B75+B77+B79+B81+B83,2))</f>
@@ -4584,7 +4626,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -4601,7 +4643,7 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" s="71">
         <f>SUM(ROUND(B63+B85+B86,2))</f>
@@ -4655,6 +4697,14 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:E1"/>
@@ -4665,20 +4715,12 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:M81">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:M81" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>1E+35</formula1>
     </dataValidation>
   </dataValidations>
@@ -4688,7 +4730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4708,40 +4750,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="A1" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
       <c r="I1" s="42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="A2" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -4752,13 +4794,13 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
+      <c r="A3" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -4769,16 +4811,16 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
+      <c r="A4" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -4797,7 +4839,7 @@
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="75">
         <f>'Operating Stmt.'!B5</f>
@@ -4850,73 +4892,73 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="122"/>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="115" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="109" t="str">
+      <c r="C6" s="115" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="109" t="str">
+      <c r="D6" s="115" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="109" t="str">
+      <c r="E6" s="115" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="109" t="e">
+      <c r="F6" s="115" t="e">
         <f>Liabilities!F6</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="109" t="e">
+      <c r="G6" s="115" t="e">
         <f>Liabilities!G6</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="109" t="e">
+      <c r="H6" s="115" t="e">
         <f>Liabilities!H6</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="109" t="e">
+      <c r="I6" s="115" t="e">
         <f>Liabilities!I6</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="109" t="e">
+      <c r="J6" s="115" t="e">
         <f>Liabilities!J6</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="109" t="e">
+      <c r="K6" s="115" t="e">
         <f>Liabilities!K6</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="109" t="e">
+      <c r="L6" s="115" t="e">
         <f>Liabilities!L6</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="107" t="e">
+      <c r="M6" s="117" t="e">
         <f>Liabilities!M6</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="122"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
       <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="77"/>
       <c r="C8" s="78"/>
@@ -4933,7 +4975,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="80"/>
       <c r="C9" s="55"/>
@@ -4965,7 +5007,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" s="82">
         <f t="shared" ref="B11:M11" si="0">SUM(ROUND(B13+B15,2))</f>
@@ -5018,7 +5060,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="80"/>
       <c r="C12" s="55"/>
@@ -5035,7 +5077,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="80"/>
       <c r="C13" s="55"/>
@@ -5052,7 +5094,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -5069,7 +5111,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="55"/>
@@ -5086,7 +5128,7 @@
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="55"/>
@@ -5103,7 +5145,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
@@ -5120,7 +5162,7 @@
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="80"/>
       <c r="C18" s="55"/>
@@ -5137,7 +5179,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -5154,7 +5196,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="55"/>
@@ -5186,7 +5228,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="82">
         <f t="shared" ref="B22:M22" si="1">SUM(ROUND(B24+B29+B31+B33,2))</f>
@@ -5254,7 +5296,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="82">
         <f t="shared" ref="B24:M24" si="2">SUM(ROUND(B26+B27,2))</f>
@@ -5307,7 +5349,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="80"/>
       <c r="C25" s="55"/>
@@ -5324,7 +5366,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="80"/>
       <c r="C26" s="55"/>
@@ -5341,7 +5383,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="55"/>
@@ -5373,7 +5415,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
@@ -5429,7 +5471,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -5485,7 +5527,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="82">
         <f t="shared" ref="B33:M33" si="3">SUM(ROUND(B34+B35,2))</f>
@@ -5538,7 +5580,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="80"/>
       <c r="C34" s="55"/>
@@ -5555,7 +5597,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" s="80"/>
       <c r="C35" s="55"/>
@@ -5587,7 +5629,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B37" s="80"/>
       <c r="C37" s="55"/>
@@ -5604,7 +5646,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" s="80"/>
       <c r="C38" s="80"/>
@@ -5621,7 +5663,7 @@
     </row>
     <row r="39" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B39" s="80"/>
       <c r="C39" s="55"/>
@@ -5653,7 +5695,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="80"/>
       <c r="C41" s="55"/>
@@ -5685,7 +5727,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B43" s="82">
         <f t="shared" ref="B43:M43" si="4">SUM(ROUND(B9+B11+B16+B18+B20+B22+B37+B39+B41,2))</f>
@@ -5753,7 +5795,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45" s="80">
         <f>SUM(ROUND(B46+B47+B48+B49+B50,2))</f>
@@ -5806,7 +5848,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B46" s="80"/>
       <c r="C46" s="55"/>
@@ -5823,7 +5865,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B47" s="80"/>
       <c r="C47" s="55"/>
@@ -5885,7 +5927,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -5902,7 +5944,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B52" s="80"/>
       <c r="C52" s="55"/>
@@ -5934,7 +5976,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B54" s="80"/>
       <c r="C54" s="55"/>
@@ -5966,7 +6008,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B56" s="82">
         <f>SUM(ROUND(B45-B52-B54,2))</f>
@@ -6034,7 +6076,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" s="80"/>
       <c r="C58" s="55"/>
@@ -6066,7 +6108,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="80"/>
       <c r="C60" s="55"/>
@@ -6098,7 +6140,7 @@
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B62" s="82">
         <f>B64+B65+B67+B69+B71</f>
@@ -6151,7 +6193,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B63" s="80"/>
       <c r="C63" s="55"/>
@@ -6168,7 +6210,7 @@
     </row>
     <row r="64" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B64" s="80"/>
       <c r="C64" s="55"/>
@@ -6185,7 +6227,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" s="80"/>
       <c r="C65" s="55"/>
@@ -6217,7 +6259,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B67" s="80"/>
       <c r="C67" s="55"/>
@@ -6234,7 +6276,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68" s="80"/>
       <c r="C68" s="80"/>
@@ -6251,7 +6293,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" s="80"/>
       <c r="C69" s="55"/>
@@ -6268,7 +6310,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70" s="80"/>
       <c r="C70" s="80"/>
@@ -6285,7 +6327,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" s="60">
         <f>SUM(ROUND(B72+B73+B74,2))</f>
@@ -6338,7 +6380,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72" s="80"/>
       <c r="C72" s="55"/>
@@ -6355,7 +6397,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B73" s="80"/>
       <c r="C73" s="55"/>
@@ -6372,7 +6414,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" s="80"/>
       <c r="C74" s="55"/>
@@ -6404,7 +6446,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B76" s="80"/>
       <c r="C76" s="55"/>
@@ -6438,7 +6480,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B78" s="80"/>
       <c r="C78" s="55"/>
@@ -6470,7 +6512,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B80" s="82">
         <f>SUM(ROUND(B60+B62+B76+B78,2))</f>
@@ -6538,7 +6580,7 @@
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B82" s="82">
         <f t="shared" ref="B82:M82" si="10">ROUND(B83+B84+B85+B86+B87,2)</f>
@@ -6591,7 +6633,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B83" s="80"/>
       <c r="C83" s="55"/>
@@ -6608,7 +6650,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" s="80"/>
       <c r="C84" s="55"/>
@@ -6625,7 +6667,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B85" s="80"/>
       <c r="C85" s="55"/>
@@ -6642,7 +6684,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86" s="80"/>
       <c r="C86" s="55"/>
@@ -6659,7 +6701,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B87" s="80"/>
       <c r="C87" s="55"/>
@@ -6676,7 +6718,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="99" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
@@ -6693,7 +6735,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B89" s="82">
         <f>SUM(ROUND(B43+B56+B80+B82+B88,2))</f>
@@ -6761,7 +6803,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B91" s="82">
         <f>ROUND(Liabilities!B85-Liabilities!B75-Asset!B82,2)</f>
@@ -6829,7 +6871,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B93" s="82">
         <f>SUM(ROUND(Liabilities!B55+Liabilities!B85,2))-(ROUND(B56+B80+B82,2))</f>
@@ -6897,7 +6939,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B95" s="82">
         <f>IF(Liabilities!B37=0,0,(ROUND(B43/Liabilities!B37,2)))</f>
@@ -6965,7 +7007,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B97" s="82">
         <f>IF(B91=0,0,(ROUND(Liabilities!B63/B91,2)))</f>
@@ -7033,7 +7075,7 @@
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B99" s="89">
         <f>IF(B91=0,0,(ROUND(Liabilities!B55/B91,2)))</f>
@@ -7087,11 +7129,6 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -7104,6 +7141,11 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA.xlsx
+++ b/service-loans/template/Template_CW_CMA.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49F3CD-D6C1-47E7-AF67-2A27D17CACB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D033A2-083E-4312-8835-7EED401AB91C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
@@ -548,9 +548,6 @@
     <t>31. Investments [other than long-term investments]</t>
   </si>
   <si>
-    <t>Other Income: Need to check at the time of Due Diligence</t>
-  </si>
-  <si>
     <t>Other Liabilities (Need to check at the time of Due Diligence)</t>
   </si>
   <si>
@@ -561,15 +558,19 @@
   </si>
   <si>
     <t>5.  Cost of Sales (including indirect taxes)</t>
+  </si>
+  <si>
+    <t>Other Income/(Expense): Need to check at the time of Due Diligence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1134,7 +1135,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1397,6 +1398,18 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1425,21 +1438,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1448,6 +1449,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1793,27 +1798,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="17.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="7.5703125" style="19" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.140625" style="19" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.6640625" style="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="7.5546875" style="19" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="9.109375" style="19" hidden="1" customWidth="1" collapsed="1"/>
     <col min="11" max="13" width="0" style="19" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="7.5703125" style="19" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="19" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="19" hidden="1" collapsed="1"/>
+    <col min="14" max="15" width="7.5546875" style="19" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="9.109375" style="19" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="19" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
         <v>95</v>
       </c>
@@ -1837,7 +1842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>41</v>
       </c>
@@ -1849,7 +1854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="104" t="s">
         <v>40</v>
       </c>
@@ -1858,7 +1863,7 @@
       <c r="D3" s="104"/>
       <c r="E3" s="104"/>
     </row>
-    <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="105" t="s">
         <v>39</v>
       </c>
@@ -1871,7 +1876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="28">
         <v>2015</v>
@@ -1889,7 +1894,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
         <v>36</v>
@@ -1904,7 +1909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>34</v>
       </c>
@@ -1915,7 +1920,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>33</v>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>32</v>
       </c>
@@ -1937,7 +1942,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -1948,7 +1953,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
@@ -1971,7 +1976,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -1980,16 +1985,16 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>29</v>
       </c>
@@ -1998,7 +2003,7 @@
       <c r="D14" s="30"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>28</v>
       </c>
@@ -2019,14 +2024,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>27</v>
       </c>
@@ -2044,23 +2049,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
@@ -2081,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>25</v>
       </c>
@@ -2090,7 +2095,7 @@
       <c r="D21" s="32"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>24</v>
       </c>
@@ -2099,14 +2104,14 @@
       <c r="D22" s="32"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>23</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>22</v>
       </c>
@@ -2136,7 +2141,7 @@
       <c r="D25" s="32"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>21</v>
       </c>
@@ -2145,14 +2150,14 @@
       <c r="D26" s="32"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>20</v>
       </c>
@@ -2161,14 +2166,14 @@
       <c r="D28" s="30"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>19</v>
       </c>
@@ -2177,14 +2182,14 @@
       <c r="D30" s="30"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>18</v>
       </c>
@@ -2193,14 +2198,14 @@
       <c r="D32" s="30"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>17</v>
       </c>
@@ -2209,14 +2214,14 @@
       <c r="D34" s="30"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>16</v>
       </c>
@@ -2237,14 +2242,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>15</v>
       </c>
@@ -2253,14 +2258,14 @@
       <c r="D38" s="30"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>14</v>
       </c>
@@ -2281,14 +2286,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="36"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>13</v>
       </c>
@@ -2297,14 +2302,14 @@
       <c r="D42" s="37"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>12</v>
       </c>
@@ -2325,14 +2330,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>11</v>
       </c>
@@ -2341,14 +2346,14 @@
       <c r="D46" s="37"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>10</v>
       </c>
@@ -2369,14 +2374,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>9</v>
       </c>
@@ -2385,14 +2390,14 @@
       <c r="D50" s="37"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>8</v>
       </c>
@@ -2413,14 +2418,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>96</v>
       </c>
@@ -2429,14 +2434,14 @@
       <c r="D54" s="34"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>97</v>
       </c>
@@ -2445,14 +2450,14 @@
       <c r="D56" s="37"/>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>98</v>
       </c>
@@ -2473,14 +2478,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>99</v>
       </c>
@@ -2501,14 +2506,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
         <v>100</v>
       </c>
@@ -2517,14 +2522,14 @@
       <c r="D62" s="11"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
         <v>101</v>
       </c>
@@ -2545,14 +2550,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
         <v>102</v>
       </c>
@@ -2561,7 +2566,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>6</v>
       </c>
@@ -2591,7 +2596,7 @@
       <c r="D68" s="37"/>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>3</v>
       </c>
@@ -2642,14 +2647,14 @@
       <c r="D71" s="37"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>103</v>
       </c>
@@ -2670,14 +2675,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
         <v>104</v>
       </c>
@@ -2686,16 +2691,16 @@
       <c r="D75" s="11"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="B76" s="123"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="124"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>1</v>
       </c>
@@ -2704,7 +2709,7 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="str">
         <f>IF(A79="15. Profit After Tax [for the year]","","15. Net Profit/loss [13-14]")</f>
         <v>15. Net Profit/loss [13-14]</v>
@@ -2726,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="str">
         <f>IF(OR(B76&gt;0,C76&gt;0,D76&gt;0,E76&gt;0),"14. Profit After Tax [for the year]","")</f>
         <v/>
@@ -2736,7 +2741,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
         <v>105</v>
       </c>
@@ -2745,14 +2750,14 @@
       <c r="D80" s="11"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="B81" s="12"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="24" t="s">
         <v>0</v>
       </c>
@@ -2773,14 +2778,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
         <v>106</v>
       </c>
@@ -2801,14 +2806,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
         <v>107</v>
       </c>
@@ -2830,7 +2835,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g5Pubm1Wv40HoCRyKJNDjiY3V2H6ciq5PdO5Q1TxtatdS7F2UrhYYpd7uTW7WTZq4JUZyQEFdh+Fupk5jKcB4Q==" saltValue="5hwk75dBMtUbZ0giNtTtcw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -2860,22 +2865,22 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" style="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="17.7109375" style="45" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="17.7109375" style="45" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="45" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="63.88671875" style="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.6640625" style="45" customWidth="1" collapsed="1"/>
+    <col min="6" max="13" width="17.6640625" style="45" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.109375" style="45" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -2895,14 +2900,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -2912,14 +2917,14 @@
       <c r="L2" s="44"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -2929,12 +2934,12 @@
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="97" t="s">
         <v>38</v>
       </c>
@@ -2956,8 +2961,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="113" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="28">
@@ -3009,73 +3014,73 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="115" t="str">
+    <row r="6" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="114"/>
+      <c r="B6" s="109" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="115" t="str">
+      <c r="C6" s="109" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="115" t="str">
+      <c r="D6" s="109" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="115" t="str">
+      <c r="E6" s="109" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="115" t="e">
+      <c r="F6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="115" t="e">
+      <c r="G6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="115" t="e">
+      <c r="H6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="115" t="e">
+      <c r="I6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="115" t="e">
+      <c r="J6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="115" t="e">
+      <c r="K6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="115" t="e">
+      <c r="L6" s="109" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="117" t="e">
+      <c r="M6" s="107" t="e">
         <f>+'Operating Stmt.'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="118"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="114"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="108"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>68</v>
       </c>
@@ -3092,7 +3097,7 @@
       <c r="L8" s="49"/>
       <c r="M8" s="50"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>67</v>
       </c>
@@ -3109,7 +3114,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
@@ -3126,7 +3131,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>66</v>
       </c>
@@ -3143,7 +3148,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>65</v>
       </c>
@@ -3160,7 +3165,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>109</v>
       </c>
@@ -3177,7 +3182,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>64</v>
       </c>
@@ -3194,7 +3199,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>63</v>
       </c>
@@ -3247,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -3262,7 +3267,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>62</v>
       </c>
@@ -3279,7 +3284,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -3294,7 +3299,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>61</v>
       </c>
@@ -3311,7 +3316,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -3326,7 +3331,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>60</v>
       </c>
@@ -3343,7 +3348,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -3358,7 +3363,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>59</v>
       </c>
@@ -3375,7 +3380,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
@@ -3390,7 +3395,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>58</v>
       </c>
@@ -3407,7 +3412,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -3422,7 +3427,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>57</v>
       </c>
@@ -3439,7 +3444,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -3454,7 +3459,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="58" t="s">
         <v>56</v>
       </c>
@@ -3471,7 +3476,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>
@@ -3486,7 +3491,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -3501,7 +3506,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="59" t="s">
         <v>55</v>
       </c>
@@ -3518,8 +3523,8 @@
       <c r="L32" s="2"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="111"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -3533,8 +3538,8 @@
       <c r="L33" s="2"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="112"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -3548,7 +3553,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>54</v>
       </c>
@@ -3601,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -3616,7 +3621,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="62" t="s">
         <v>53</v>
       </c>
@@ -3669,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="63"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -3684,7 +3689,7 @@
       <c r="L38" s="51"/>
       <c r="M38" s="52"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
         <v>52</v>
       </c>
@@ -3701,7 +3706,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -3716,7 +3721,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>51</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -3748,7 +3753,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>162</v>
       </c>
@@ -3765,7 +3770,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -3780,7 +3785,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>50</v>
       </c>
@@ -3833,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="66" t="s">
         <v>108</v>
       </c>
@@ -3850,7 +3855,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="66" t="s">
         <v>155</v>
       </c>
@@ -3867,7 +3872,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -3882,7 +3887,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>49</v>
       </c>
@@ -3899,7 +3904,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>48</v>
       </c>
@@ -3916,7 +3921,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>47</v>
       </c>
@@ -3933,7 +3938,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -3948,7 +3953,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>46</v>
       </c>
@@ -3965,7 +3970,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -3980,7 +3985,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="67" t="s">
         <v>45</v>
       </c>
@@ -4033,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="67"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -4048,7 +4053,7 @@
       <c r="L56" s="16"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="67" t="s">
         <v>111</v>
       </c>
@@ -4101,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="68" t="s">
         <v>156</v>
       </c>
@@ -4118,7 +4123,7 @@
       <c r="L58" s="16"/>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
         <v>158</v>
       </c>
@@ -4135,7 +4140,7 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="68" t="s">
         <v>157</v>
       </c>
@@ -4152,7 +4157,7 @@
       <c r="L60" s="16"/>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
         <v>110</v>
       </c>
@@ -4169,7 +4174,7 @@
       <c r="L61" s="16"/>
       <c r="M61" s="17"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
@@ -4183,7 +4188,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="69" t="s">
         <v>112</v>
       </c>
@@ -4236,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -4251,7 +4256,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="53" t="s">
         <v>44</v>
       </c>
@@ -4268,7 +4273,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -4283,7 +4288,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>113</v>
       </c>
@@ -4300,7 +4305,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -4315,7 +4320,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>114</v>
       </c>
@@ -4332,7 +4337,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -4347,7 +4352,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>115</v>
       </c>
@@ -4364,7 +4369,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -4379,7 +4384,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>116</v>
       </c>
@@ -4396,7 +4401,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -4411,7 +4416,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
         <v>117</v>
       </c>
@@ -4428,7 +4433,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -4443,7 +4448,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>118</v>
       </c>
@@ -4460,7 +4465,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -4475,7 +4480,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>119</v>
       </c>
@@ -4492,7 +4497,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -4507,7 +4512,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="s">
         <v>161</v>
       </c>
@@ -4524,7 +4529,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -4539,7 +4544,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
         <v>120</v>
       </c>
@@ -4556,7 +4561,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -4571,7 +4576,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>121</v>
       </c>
@@ -4624,9 +4629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -4641,7 +4646,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="70" t="s">
         <v>122</v>
       </c>
@@ -4695,16 +4700,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mfa2SWb8p6v0ixgKASWKnymu6d6seSipkq+D1Z4xIDyYa4NCHm3ztnzWoU/2TgoVxWxYeTV+2OVa/KpbsUQr9A==" saltValue="aLL/SLtgxHHwwap8hGeZBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:E1"/>
@@ -4715,6 +4712,14 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:M57" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4733,7 +4738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
@@ -4741,22 +4746,22 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" style="74" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="17.7109375" style="45" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="17.7109375" style="45" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="63.88671875" style="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="17.6640625" style="45" customWidth="1" collapsed="1"/>
+    <col min="6" max="13" width="17.6640625" style="45" hidden="1" customWidth="1" collapsed="1"/>
     <col min="14" max="16384" width="0" style="45" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -4776,14 +4781,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -4793,14 +4798,14 @@
       <c r="L2" s="44"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
@@ -4810,12 +4815,12 @@
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
     </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+    <row r="4" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="97" t="s">
         <v>38</v>
       </c>
@@ -4837,7 +4842,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
         <v>93</v>
       </c>
@@ -4890,73 +4895,73 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="122"/>
-      <c r="B6" s="115" t="str">
+      <c r="B6" s="109" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="115" t="str">
+      <c r="C6" s="109" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="115" t="str">
+      <c r="D6" s="109" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="115" t="str">
+      <c r="E6" s="109" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="115" t="e">
+      <c r="F6" s="109" t="e">
         <f>Liabilities!F6</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="115" t="e">
+      <c r="G6" s="109" t="e">
         <f>Liabilities!G6</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="115" t="e">
+      <c r="H6" s="109" t="e">
         <f>Liabilities!H6</f>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="115" t="e">
+      <c r="I6" s="109" t="e">
         <f>Liabilities!I6</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="115" t="e">
+      <c r="J6" s="109" t="e">
         <f>Liabilities!J6</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="115" t="e">
+      <c r="K6" s="109" t="e">
         <f>Liabilities!K6</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="115" t="e">
+      <c r="L6" s="109" t="e">
         <f>Liabilities!L6</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="117" t="e">
+      <c r="M6" s="107" t="e">
         <f>Liabilities!M6</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="122"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
       <c r="M7" s="120"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="76" t="s">
         <v>92</v>
       </c>
@@ -4973,7 +4978,7 @@
       <c r="L8" s="72"/>
       <c r="M8" s="73"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
         <v>126</v>
       </c>
@@ -4990,7 +4995,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" s="80"/>
       <c r="C10" s="55"/>
@@ -5005,7 +5010,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="81" t="s">
         <v>165</v>
       </c>
@@ -5058,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="79" t="s">
         <v>82</v>
       </c>
@@ -5075,7 +5080,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="79" t="s">
         <v>91</v>
       </c>
@@ -5092,7 +5097,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="79" t="s">
         <v>76</v>
       </c>
@@ -5109,7 +5114,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
         <v>90</v>
       </c>
@@ -5126,7 +5131,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
         <v>127</v>
       </c>
@@ -5143,7 +5148,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
         <v>74</v>
       </c>
@@ -5160,7 +5165,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>89</v>
       </c>
@@ -5177,7 +5182,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="79" t="s">
         <v>88</v>
       </c>
@@ -5194,7 +5199,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
         <v>128</v>
       </c>
@@ -5211,7 +5216,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
       <c r="B21" s="80"/>
       <c r="C21" s="55"/>
@@ -5226,7 +5231,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="79" t="s">
         <v>129</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="79"/>
       <c r="B23" s="80"/>
       <c r="C23" s="55"/>
@@ -5294,7 +5299,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="79" t="s">
         <v>87</v>
       </c>
@@ -5347,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="79" t="s">
         <v>76</v>
       </c>
@@ -5364,7 +5369,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="79" t="s">
         <v>83</v>
       </c>
@@ -5381,7 +5386,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
         <v>163</v>
       </c>
@@ -5398,7 +5403,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="79"/>
       <c r="B28" s="80"/>
       <c r="C28" s="55"/>
@@ -5413,7 +5418,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
         <v>86</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="79"/>
       <c r="B30" s="80"/>
       <c r="C30" s="55"/>
@@ -5469,7 +5474,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
         <v>85</v>
       </c>
@@ -5510,7 +5515,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="79"/>
       <c r="B32" s="80"/>
       <c r="C32" s="55"/>
@@ -5525,7 +5530,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="79" t="s">
         <v>84</v>
       </c>
@@ -5578,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="79" t="s">
         <v>83</v>
       </c>
@@ -5595,7 +5600,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="79" t="s">
         <v>163</v>
       </c>
@@ -5612,7 +5617,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="79"/>
       <c r="B36" s="80"/>
       <c r="C36" s="55"/>
@@ -5627,7 +5632,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>130</v>
       </c>
@@ -5644,7 +5649,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="79" t="s">
         <v>48</v>
       </c>
@@ -5661,7 +5666,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79" t="s">
         <v>131</v>
       </c>
@@ -5678,7 +5683,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="79"/>
       <c r="B40" s="80"/>
       <c r="C40" s="80"/>
@@ -5693,7 +5698,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
         <v>132</v>
       </c>
@@ -5710,7 +5715,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="83"/>
       <c r="B42" s="80"/>
       <c r="C42" s="55"/>
@@ -5725,7 +5730,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="79" t="s">
         <v>133</v>
       </c>
@@ -5778,7 +5783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="81"/>
       <c r="B44" s="80"/>
       <c r="C44" s="55"/>
@@ -5793,7 +5798,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="81" t="s">
         <v>134</v>
       </c>
@@ -5846,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="84" t="s">
         <v>141</v>
       </c>
@@ -5863,7 +5868,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="84" t="s">
         <v>142</v>
       </c>
@@ -5880,7 +5885,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="84"/>
       <c r="B48" s="80"/>
       <c r="C48" s="55"/>
@@ -5895,7 +5900,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="84"/>
       <c r="B49" s="80"/>
       <c r="C49" s="55"/>
@@ -5910,7 +5915,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="84"/>
       <c r="B50" s="80"/>
       <c r="C50" s="55"/>
@@ -5925,7 +5930,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="79" t="s">
         <v>82</v>
       </c>
@@ -5942,7 +5947,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="79" t="s">
         <v>135</v>
       </c>
@@ -5959,7 +5964,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="79"/>
       <c r="B53" s="80"/>
       <c r="C53" s="80"/>
@@ -5974,7 +5979,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="79" t="s">
         <v>136</v>
       </c>
@@ -5991,7 +5996,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="79"/>
       <c r="B55" s="80"/>
       <c r="C55" s="55"/>
@@ -6006,7 +6011,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="79" t="s">
         <v>137</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="79"/>
       <c r="B57" s="80"/>
       <c r="C57" s="55"/>
@@ -6074,7 +6079,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="76" t="s">
         <v>81</v>
       </c>
@@ -6091,7 +6096,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="79"/>
       <c r="B59" s="80"/>
       <c r="C59" s="55"/>
@@ -6106,7 +6111,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="79" t="s">
         <v>143</v>
       </c>
@@ -6123,7 +6128,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="79"/>
       <c r="B61" s="80"/>
       <c r="C61" s="55"/>
@@ -6138,7 +6143,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="81" t="s">
         <v>144</v>
       </c>
@@ -6191,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="79" t="s">
         <v>80</v>
       </c>
@@ -6208,7 +6213,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="81" t="s">
         <v>79</v>
       </c>
@@ -6225,7 +6230,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="79" t="s">
         <v>78</v>
       </c>
@@ -6242,7 +6247,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="79"/>
       <c r="B66" s="80"/>
       <c r="C66" s="80"/>
@@ -6257,7 +6262,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="81" t="s">
         <v>77</v>
       </c>
@@ -6274,7 +6279,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="79" t="s">
         <v>76</v>
       </c>
@@ -6291,7 +6296,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="81" t="s">
         <v>75</v>
       </c>
@@ -6308,7 +6313,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="79" t="s">
         <v>74</v>
       </c>
@@ -6325,7 +6330,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="79" t="s">
         <v>73</v>
       </c>
@@ -6378,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="85" t="s">
         <v>123</v>
       </c>
@@ -6395,7 +6400,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="85" t="s">
         <v>124</v>
       </c>
@@ -6412,7 +6417,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="85" t="s">
         <v>125</v>
       </c>
@@ -6429,7 +6434,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="79"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -6444,7 +6449,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="79" t="s">
         <v>145</v>
       </c>
@@ -6461,7 +6466,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="79" t="s">
         <v>2</v>
       </c>
@@ -6478,7 +6483,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="81" t="s">
         <v>146</v>
       </c>
@@ -6495,7 +6500,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="79"/>
       <c r="B79" s="80"/>
       <c r="C79" s="55"/>
@@ -6510,7 +6515,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="86" t="s">
         <v>147</v>
       </c>
@@ -6563,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="79"/>
       <c r="B81" s="80"/>
       <c r="C81" s="55"/>
@@ -6578,7 +6583,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="81" t="s">
         <v>148</v>
       </c>
@@ -6631,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="87" t="s">
         <v>138</v>
       </c>
@@ -6648,7 +6653,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="87" t="s">
         <v>139</v>
       </c>
@@ -6665,7 +6670,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="87" t="s">
         <v>164</v>
       </c>
@@ -6682,7 +6687,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="87" t="s">
         <v>140</v>
       </c>
@@ -6699,7 +6704,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="87" t="s">
         <v>110</v>
       </c>
@@ -6716,9 +6721,9 @@
       <c r="L87" s="2"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
@@ -6733,7 +6738,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="79" t="s">
         <v>152</v>
       </c>
@@ -6786,7 +6791,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="79"/>
       <c r="B90" s="80"/>
       <c r="C90" s="55"/>
@@ -6801,7 +6806,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="86" t="s">
         <v>153</v>
       </c>
@@ -6854,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="79"/>
       <c r="B92" s="80"/>
       <c r="C92" s="55"/>
@@ -6869,7 +6874,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="79" t="s">
         <v>154</v>
       </c>
@@ -6922,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="79"/>
       <c r="B94" s="80"/>
       <c r="C94" s="55"/>
@@ -6937,7 +6942,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="79" t="s">
         <v>149</v>
       </c>
@@ -6990,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="79"/>
       <c r="B96" s="80"/>
       <c r="C96" s="55"/>
@@ -7005,7 +7010,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="79" t="s">
         <v>150</v>
       </c>
@@ -7058,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="79"/>
       <c r="B98" s="80"/>
       <c r="C98" s="55"/>
@@ -7073,7 +7078,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="88" t="s">
         <v>151</v>
       </c>
@@ -7127,8 +7132,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JH+M2rDpBl7rykdaWSmCXxUqEhbdRWb5z3BL/p/YBMfuMf/aCRoSU+AO3chEesEJYK+Ja+8nM58AIJezAxSyxQ==" saltValue="VykDYqrUJqNeYz4qLUGC8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -7142,10 +7151,6 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
